--- a/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.10582982514665</v>
+        <v>26.10582982514664</v>
       </c>
       <c r="C2">
-        <v>19.63553893511092</v>
+        <v>19.63553893511081</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.59407587440209</v>
+        <v>30.5940758744021</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.14601538067395</v>
+        <v>34.14601538067409</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.18118790057621</v>
+        <v>24.18118790057619</v>
       </c>
       <c r="C3">
-        <v>18.22457648152445</v>
+        <v>18.22457648152459</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.20366686593145</v>
+        <v>28.20366686593143</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>31.99588172614341</v>
+        <v>31.99588172614333</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.94908332319869</v>
+        <v>22.94908332319883</v>
       </c>
       <c r="C4">
-        <v>17.32367000766316</v>
+        <v>17.32367000766303</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.68894264702097</v>
+        <v>26.68894264702108</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>30.67360613993845</v>
+        <v>30.67360613993856</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.43378485830319</v>
+        <v>22.43378485830316</v>
       </c>
       <c r="C5">
-        <v>16.94742292009027</v>
+        <v>16.94742292009038</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.05883493888462</v>
+        <v>26.05883493888453</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>30.13400019147785</v>
+        <v>30.13400019147791</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.34740775563913</v>
+        <v>22.34740775563917</v>
       </c>
       <c r="C6">
-        <v>16.88438518387629</v>
+        <v>16.88438518387619</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.95340289633502</v>
+        <v>25.95340289633505</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>30.04434967352985</v>
+        <v>30.04434967352966</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.94218796573274</v>
+        <v>22.94218796573278</v>
       </c>
       <c r="C7">
-        <v>17.31863325690138</v>
+        <v>17.31863325690151</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.68049805700218</v>
+        <v>26.68049805700221</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>30.6663320986078</v>
+        <v>30.66633209860787</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.45231926412767</v>
+        <v>25.45231926412757</v>
       </c>
       <c r="C8">
-        <v>19.15593614113753</v>
+        <v>19.15593614113749</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.778952339495</v>
+        <v>29.7789523394949</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.40486396343825</v>
+        <v>33.40486396343812</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.0038115718331</v>
+        <v>30.00381157183319</v>
       </c>
       <c r="C9">
-        <v>22.50790094869098</v>
+        <v>22.50790094869082</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.53806201670193</v>
+        <v>35.53806201670198</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>38.79287365208884</v>
+        <v>38.7928736520889</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.17112357299437</v>
+        <v>33.17112357299423</v>
       </c>
       <c r="C10">
-        <v>24.85849383590947</v>
+        <v>24.85849383590948</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>39.6753129108059</v>
+        <v>39.67531291080578</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>37.72874519847369</v>
       </c>
       <c r="G10">
-        <v>43.20325866950544</v>
+        <v>43.20325866950499</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.58851435247369</v>
+        <v>34.58851435247375</v>
       </c>
       <c r="C11">
-        <v>25.91606226208694</v>
+        <v>25.91606226208696</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41.56814016676329</v>
+        <v>41.56814016676328</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>45.22700387302548</v>
+        <v>45.22700387302542</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.1235511237394</v>
+        <v>35.12355112373949</v>
       </c>
       <c r="C12">
-        <v>26.31628746068873</v>
+        <v>26.31628746068881</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>42.29008529628821</v>
+        <v>42.29008529628822</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>45.99886812207131</v>
+        <v>45.9988681220715</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.00836495496619</v>
+        <v>35.00836495496623</v>
       </c>
       <c r="C13">
-        <v>26.23007547947658</v>
+        <v>26.2300754794766</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>42.13430094333854</v>
+        <v>42.13430094333841</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>45.8323294075122</v>
+        <v>45.83232940751183</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.63255485959683</v>
+        <v>34.63255485959702</v>
       </c>
       <c r="C14">
-        <v>25.9489843320479</v>
+        <v>25.94898433204781</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>41.62740641131826</v>
+        <v>41.62740641131821</v>
       </c>
       <c r="F14">
-        <v>39.19167637503958</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>45.29037431405734</v>
+        <v>45.29037431405708</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.40219701871785</v>
+        <v>34.40219701871779</v>
       </c>
       <c r="C15">
-        <v>25.77682482127711</v>
+        <v>25.77682482127697</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>41.31771977963823</v>
+        <v>41.31771977963827</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154518</v>
       </c>
       <c r="G15">
-        <v>44.9592353713002</v>
+        <v>44.95923537130015</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.07815460932458</v>
+        <v>33.0781546093247</v>
       </c>
       <c r="C16">
-        <v>24.78925649882151</v>
+        <v>24.78925649882127</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.55211376190545</v>
+        <v>39.55211376190562</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>43.07158914816959</v>
+        <v>43.07158914816987</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.2609455777255</v>
+        <v>32.26094557772556</v>
       </c>
       <c r="C17">
-        <v>24.18130802201448</v>
+        <v>24.18130802201442</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.47397811775805</v>
+        <v>38.47397811775809</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>41.9199055327811</v>
+        <v>41.91990553278104</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.78858029963872</v>
+        <v>31.78858029963866</v>
       </c>
       <c r="C18">
-        <v>23.83042260001154</v>
+        <v>23.83042260001133</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>41.25890311921442</v>
+        <v>41.2589031192143</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.62820196705476</v>
+        <v>31.62820196705453</v>
       </c>
       <c r="C19">
-        <v>23.71137384618789</v>
+        <v>23.71137384618779</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.64493366377884</v>
+        <v>37.64493366377877</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>41.03526515312354</v>
+        <v>41.03526515312334</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.34816919389274</v>
+        <v>32.34816919389269</v>
       </c>
       <c r="C20">
-        <v>24.24614127343187</v>
+        <v>24.24614127343207</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.58864770400815</v>
+        <v>38.58864770400823</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>42.04233887200097</v>
+        <v>42.04233887200088</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.74296972083905</v>
+        <v>34.74296972083903</v>
       </c>
       <c r="C21">
-        <v>26.03154088560191</v>
+        <v>26.03154088560173</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>41.77611851239195</v>
+        <v>41.7761185123919</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>45.44938108254015</v>
+        <v>45.44938108253974</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.29938359667257</v>
+        <v>36.29938359667232</v>
       </c>
       <c r="C22">
-        <v>27.19794630907285</v>
+        <v>27.19794630907291</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.89210187425866</v>
+        <v>43.89210187425859</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>47.71041885129387</v>
+        <v>47.7104188512934</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.46880344902458</v>
+        <v>35.46880344902464</v>
       </c>
       <c r="C23">
-        <v>26.57485832585381</v>
+        <v>26.5748583258537</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.75823039958661</v>
+        <v>42.75823039958662</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>46.49924664912395</v>
+        <v>46.49924664912405</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.30874343057687</v>
+        <v>32.30874343057695</v>
       </c>
       <c r="C24">
-        <v>24.21683452262647</v>
+        <v>24.21683452262657</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.53680439614551</v>
+        <v>38.53680439614556</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
-        <v>41.98698349678286</v>
+        <v>41.98698349678282</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.80771481225512</v>
+        <v>28.80771481225504</v>
       </c>
       <c r="C25">
-        <v>21.6242872160684</v>
+        <v>21.62428721606861</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>34.00511927561221</v>
+        <v>34.00511927561219</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459127059</v>
       </c>
       <c r="G25">
-        <v>37.32265773172681</v>
+        <v>37.32265773172671</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.10582982514664</v>
+        <v>26.10582982514665</v>
       </c>
       <c r="C2">
-        <v>19.63553893511081</v>
+        <v>19.63553893511092</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.5940758744021</v>
+        <v>30.59407587440209</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.14601538067409</v>
+        <v>34.14601538067395</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.18118790057619</v>
+        <v>24.18118790057621</v>
       </c>
       <c r="C3">
-        <v>18.22457648152459</v>
+        <v>18.22457648152445</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.20366686593143</v>
+        <v>28.20366686593145</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>31.99588172614333</v>
+        <v>31.99588172614341</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.94908332319883</v>
+        <v>22.94908332319869</v>
       </c>
       <c r="C4">
-        <v>17.32367000766303</v>
+        <v>17.32367000766316</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.68894264702108</v>
+        <v>26.68894264702097</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>30.67360613993856</v>
+        <v>30.67360613993845</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.43378485830316</v>
+        <v>22.43378485830319</v>
       </c>
       <c r="C5">
-        <v>16.94742292009038</v>
+        <v>16.94742292009027</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.05883493888453</v>
+        <v>26.05883493888462</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>30.13400019147791</v>
+        <v>30.13400019147785</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.34740775563917</v>
+        <v>22.34740775563913</v>
       </c>
       <c r="C6">
-        <v>16.88438518387619</v>
+        <v>16.88438518387629</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.95340289633505</v>
+        <v>25.95340289633502</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>30.04434967352966</v>
+        <v>30.04434967352985</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.94218796573278</v>
+        <v>22.94218796573274</v>
       </c>
       <c r="C7">
-        <v>17.31863325690151</v>
+        <v>17.31863325690138</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.68049805700221</v>
+        <v>26.68049805700218</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>30.66633209860787</v>
+        <v>30.6663320986078</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.45231926412757</v>
+        <v>25.45231926412767</v>
       </c>
       <c r="C8">
-        <v>19.15593614113749</v>
+        <v>19.15593614113753</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.7789523394949</v>
+        <v>29.778952339495</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.40486396343812</v>
+        <v>33.40486396343825</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.00381157183319</v>
+        <v>30.0038115718331</v>
       </c>
       <c r="C9">
-        <v>22.50790094869082</v>
+        <v>22.50790094869098</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.53806201670198</v>
+        <v>35.53806201670193</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.7928736520889</v>
+        <v>38.79287365208884</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.17112357299423</v>
+        <v>33.17112357299437</v>
       </c>
       <c r="C10">
-        <v>24.85849383590948</v>
+        <v>24.85849383590947</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>39.67531291080578</v>
+        <v>39.6753129108059</v>
       </c>
       <c r="F10">
-        <v>37.72874519847369</v>
+        <v>37.72874519847367</v>
       </c>
       <c r="G10">
-        <v>43.20325866950499</v>
+        <v>43.20325866950544</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.58851435247375</v>
+        <v>34.58851435247369</v>
       </c>
       <c r="C11">
-        <v>25.91606226208696</v>
+        <v>25.91606226208694</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41.56814016676328</v>
+        <v>41.56814016676329</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>45.22700387302542</v>
+        <v>45.22700387302548</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.12355112373949</v>
+        <v>35.1235511237394</v>
       </c>
       <c r="C12">
-        <v>26.31628746068881</v>
+        <v>26.31628746068873</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>42.29008529628822</v>
+        <v>42.29008529628821</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>45.9988681220715</v>
+        <v>45.99886812207131</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.00836495496623</v>
+        <v>35.00836495496619</v>
       </c>
       <c r="C13">
-        <v>26.2300754794766</v>
+        <v>26.23007547947658</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>42.13430094333841</v>
+        <v>42.13430094333854</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>45.83232940751183</v>
+        <v>45.8323294075122</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.63255485959702</v>
+        <v>34.63255485959683</v>
       </c>
       <c r="C14">
-        <v>25.94898433204781</v>
+        <v>25.9489843320479</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>41.62740641131821</v>
+        <v>41.62740641131826</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>39.19167637503958</v>
       </c>
       <c r="G14">
-        <v>45.29037431405708</v>
+        <v>45.29037431405734</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.40219701871779</v>
+        <v>34.40219701871785</v>
       </c>
       <c r="C15">
-        <v>25.77682482127697</v>
+        <v>25.77682482127711</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>41.31771977963827</v>
+        <v>41.31771977963823</v>
       </c>
       <c r="F15">
-        <v>38.96319309154518</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>44.95923537130015</v>
+        <v>44.9592353713002</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.0781546093247</v>
+        <v>33.07815460932458</v>
       </c>
       <c r="C16">
-        <v>24.78925649882127</v>
+        <v>24.78925649882151</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.55211376190562</v>
+        <v>39.55211376190545</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>43.07158914816987</v>
+        <v>43.07158914816959</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.26094557772556</v>
+        <v>32.2609455777255</v>
       </c>
       <c r="C17">
-        <v>24.18130802201442</v>
+        <v>24.18130802201448</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.47397811775809</v>
+        <v>38.47397811775805</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>41.91990553278104</v>
+        <v>41.9199055327811</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.78858029963866</v>
+        <v>31.78858029963872</v>
       </c>
       <c r="C18">
-        <v>23.83042260001133</v>
+        <v>23.83042260001154</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>41.2589031192143</v>
+        <v>41.25890311921442</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.62820196705453</v>
+        <v>31.62820196705476</v>
       </c>
       <c r="C19">
-        <v>23.71137384618779</v>
+        <v>23.71137384618789</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.64493366377877</v>
+        <v>37.64493366377884</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>41.03526515312334</v>
+        <v>41.03526515312354</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.34816919389269</v>
+        <v>32.34816919389274</v>
       </c>
       <c r="C20">
-        <v>24.24614127343207</v>
+        <v>24.24614127343187</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.58864770400823</v>
+        <v>38.58864770400815</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>42.04233887200088</v>
+        <v>42.04233887200097</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.74296972083903</v>
+        <v>34.74296972083905</v>
       </c>
       <c r="C21">
-        <v>26.03154088560173</v>
+        <v>26.03154088560191</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>41.7761185123919</v>
+        <v>41.77611851239195</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>45.44938108253974</v>
+        <v>45.44938108254015</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.29938359667232</v>
+        <v>36.29938359667257</v>
       </c>
       <c r="C22">
-        <v>27.19794630907291</v>
+        <v>27.19794630907285</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.89210187425859</v>
+        <v>43.89210187425866</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>47.7104188512934</v>
+        <v>47.71041885129387</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.46880344902464</v>
+        <v>35.46880344902458</v>
       </c>
       <c r="C23">
-        <v>26.5748583258537</v>
+        <v>26.57485832585381</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.75823039958662</v>
+        <v>42.75823039958661</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>46.49924664912405</v>
+        <v>46.49924664912395</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.30874343057695</v>
+        <v>32.30874343057687</v>
       </c>
       <c r="C24">
-        <v>24.21683452262657</v>
+        <v>24.21683452262647</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.53680439614556</v>
+        <v>38.53680439614551</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>36.85121910575585</v>
       </c>
       <c r="G24">
-        <v>41.98698349678282</v>
+        <v>41.98698349678286</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.80771481225504</v>
+        <v>28.80771481225512</v>
       </c>
       <c r="C25">
-        <v>21.62428721606861</v>
+        <v>21.6242872160684</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>34.00511927561219</v>
+        <v>34.00511927561221</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>37.32265773172671</v>
+        <v>37.32265773172681</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.10582982514665</v>
+        <v>26.10308241104493</v>
       </c>
       <c r="C2">
-        <v>19.63553893511092</v>
+        <v>19.63239369447777</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.59407587440209</v>
+        <v>30.59249076812153</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.14601538067395</v>
+        <v>33.74606482993735</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>34.14232298760938</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -444,31 +447,34 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.18118790057621</v>
+        <v>24.17913633690418</v>
       </c>
       <c r="C3">
-        <v>18.22457648152445</v>
+        <v>18.22216208542478</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.20366686593145</v>
+        <v>28.20255510780954</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>31.99588172614341</v>
+        <v>31.36663342954763</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>31.99320805557355</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -482,31 +488,34 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.94908332319869</v>
+        <v>22.94742807103655</v>
       </c>
       <c r="C4">
-        <v>17.32367000766316</v>
+        <v>17.3216829128721</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.68894264702097</v>
+        <v>26.6880819956514</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>30.67360613993845</v>
+        <v>29.88670131265143</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>30.67171568413856</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -520,31 +529,34 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.43378485830319</v>
+        <v>22.43228483443584</v>
       </c>
       <c r="C5">
-        <v>16.94742292009027</v>
+        <v>16.94560609000019</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.05883493888462</v>
+        <v>26.05806865472404</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>30.13400019147785</v>
+        <v>29.27847462650548</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>30.13247104119861</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -558,31 +570,34 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.34740775563913</v>
+        <v>22.3459331673165</v>
       </c>
       <c r="C6">
-        <v>16.88438518387629</v>
+        <v>16.88259643309646</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.95340289633502</v>
+        <v>25.95265185071862</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>30.04434967352985</v>
+        <v>29.17716191891977</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>30.04288313066825</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -596,31 +611,34 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.94218796573274</v>
+        <v>22.94053483063946</v>
       </c>
       <c r="C7">
-        <v>17.31863325690138</v>
+        <v>17.3166484721539</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.68049805700218</v>
+        <v>26.67963870823419</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>30.6663320986078</v>
+        <v>29.87851970421988</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>30.66444634177958</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -634,31 +652,34 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.45231926412767</v>
+        <v>25.44981920735631</v>
       </c>
       <c r="C8">
-        <v>19.15593614113753</v>
+        <v>19.15304834552504</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.778952339495</v>
+        <v>29.77753999105037</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.40486396343825</v>
+        <v>32.92926812233324</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>33.401491661063</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -672,31 +693,34 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.0038115718331</v>
+        <v>29.99931689265643</v>
       </c>
       <c r="C9">
-        <v>22.50790094869098</v>
+        <v>22.50298621186088</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.53806201670193</v>
+        <v>35.53512996057538</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.79287365208884</v>
+        <v>38.79240512315209</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>38.79240512315207</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -710,31 +734,34 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.17112357299437</v>
+        <v>33.16478949409955</v>
       </c>
       <c r="C10">
-        <v>24.85849383590947</v>
+        <v>24.85177195768894</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>39.6753129108059</v>
+        <v>39.67074913425817</v>
       </c>
       <c r="F10">
         <v>37.72874519847367</v>
       </c>
       <c r="G10">
-        <v>43.20325866950544</v>
+        <v>43.19984748411071</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>43.09528175755216</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -748,31 +775,34 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.58851435247369</v>
+        <v>34.58120261681669</v>
       </c>
       <c r="C11">
-        <v>25.91606226208694</v>
+        <v>25.9083936213315</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41.56814016676329</v>
+        <v>41.56262776179974</v>
       </c>
       <c r="F11">
         <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>45.22700387302548</v>
+        <v>45.22360241035982</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>45.07592090452541</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -786,31 +816,34 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.1235511237394</v>
+        <v>35.11584125027939</v>
       </c>
       <c r="C12">
-        <v>26.31628746068873</v>
+        <v>26.30823528538758</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>42.29008529628821</v>
+        <v>42.28417109416846</v>
       </c>
       <c r="F12">
         <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>45.99886812207131</v>
+        <v>45.9954574582461</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>45.832212038692</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -824,31 +857,34 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.00836495496619</v>
+        <v>35.00074222628995</v>
       </c>
       <c r="C13">
-        <v>26.23007547947658</v>
+        <v>26.22210716269533</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>42.13430094333854</v>
+        <v>42.12847544200973</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>45.8323294075122</v>
+        <v>45.82892147096182</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>45.66899526552311</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -862,31 +898,34 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.63255485959683</v>
+        <v>34.62521098375525</v>
       </c>
       <c r="C14">
-        <v>25.9489843320479</v>
+        <v>25.94128469009133</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>41.62740641131826</v>
+        <v>41.6218618994393</v>
       </c>
       <c r="F14">
         <v>39.19167637503958</v>
       </c>
       <c r="G14">
-        <v>45.29037431405734</v>
+        <v>45.28697241344152</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>45.13799558768613</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -900,31 +939,34 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.40219701871785</v>
+        <v>34.39502003138259</v>
       </c>
       <c r="C15">
-        <v>25.77682482127711</v>
+        <v>25.76928623317587</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>41.31771977963823</v>
+        <v>41.31234135158158</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>44.9592353713002</v>
+        <v>44.95583518151462</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>44.81366233669961</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -938,31 +980,34 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.07815460932458</v>
+        <v>33.07188099952288</v>
       </c>
       <c r="C16">
-        <v>24.78925649882151</v>
+        <v>24.78259344033413</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.55211376190545</v>
+        <v>39.54760685396386</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>43.07158914816959</v>
+        <v>43.06817605269892</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>42.96653888659358</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -976,31 +1021,34 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.2609455777255</v>
+        <v>32.25518550287405</v>
       </c>
       <c r="C17">
-        <v>24.18130802201448</v>
+        <v>24.17514590172208</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.47397811775805</v>
+        <v>38.46994551089819</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>41.9199055327811</v>
+        <v>41.91647143268377</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>41.8411406948541</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1014,31 +1062,34 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.78858029963872</v>
+        <v>31.78310292680843</v>
       </c>
       <c r="C18">
-        <v>23.83042260001154</v>
+        <v>23.82453741730915</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.85460730662668</v>
+        <v>37.85082910513925</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>41.25890311921442</v>
+        <v>41.25545456027405</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>41.19580777707923</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1052,31 +1103,34 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.62820196705476</v>
+        <v>31.62281832363181</v>
       </c>
       <c r="C19">
-        <v>23.71137384618789</v>
+        <v>23.70558068194162</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.64493366377884</v>
+        <v>37.64123874459688</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>41.03526515312354</v>
+        <v>41.03181148938855</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>40.97757238124399</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1090,31 +1144,34 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.34816919389274</v>
+        <v>32.34235580976087</v>
       </c>
       <c r="C20">
-        <v>24.24614127343187</v>
+        <v>24.23992702818093</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.58864770400815</v>
+        <v>38.58456658683808</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>42.04233887200097</v>
+        <v>42.03890730300353</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>41.96071950245874</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1128,31 +1185,34 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.74296972083905</v>
+        <v>34.73554477386791</v>
       </c>
       <c r="C21">
-        <v>26.03154088560191</v>
+        <v>26.02376307733549</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>41.77611851239195</v>
+        <v>41.77049275609742</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>45.44938108254015</v>
+        <v>45.44597784319962</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>45.29376480222327</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1166,31 +1226,34 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.29938359667257</v>
+        <v>36.29073643735127</v>
       </c>
       <c r="C22">
-        <v>27.19794630907285</v>
+        <v>27.18899507376833</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.89210187425866</v>
+        <v>43.88520724665003</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>47.71041885129387</v>
+        <v>47.70695197302193</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>47.51077250765837</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1204,31 +1267,34 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.46880344902458</v>
+        <v>35.46082752379201</v>
       </c>
       <c r="C23">
-        <v>26.57485832585381</v>
+        <v>26.56655042773665</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.75823039958661</v>
+        <v>42.7520427948528</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>46.49924664912395</v>
+        <v>46.49582509737535</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>46.32273219128934</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1242,31 +1308,34 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.30874343057687</v>
+        <v>32.30295418608782</v>
       </c>
       <c r="C24">
-        <v>24.21683452262647</v>
+        <v>24.21064387702308</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.53680439614551</v>
+        <v>38.53274526653529</v>
       </c>
       <c r="F24">
         <v>36.85121910575585</v>
       </c>
       <c r="G24">
-        <v>41.98698349678286</v>
+        <v>41.98355079033224</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>41.9066529177251</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1280,31 +1349,34 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.80771481225512</v>
+        <v>28.80380999493566</v>
       </c>
       <c r="C25">
-        <v>21.6242872160684</v>
+        <v>21.61996219135413</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>34.00511927561221</v>
+        <v>34.00266548124377</v>
       </c>
       <c r="F25">
         <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>37.32265773172681</v>
+        <v>37.21346437507547</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>37.31787862726584</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.10308241104493</v>
+        <v>24.97395541455049</v>
       </c>
       <c r="C2">
-        <v>19.63239369447777</v>
+        <v>18.33967958155278</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.59249076812153</v>
+        <v>6.208822437647829</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>63.38987510453388</v>
       </c>
       <c r="G2">
-        <v>33.74606482993735</v>
+        <v>2.057320941128455</v>
       </c>
       <c r="H2">
-        <v>34.14232298760938</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.820424445649151</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +456,43 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.17913633690418</v>
+        <v>23.09418211558562</v>
       </c>
       <c r="C3">
-        <v>18.22216208542478</v>
+        <v>16.9403159753699</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.20255510780954</v>
+        <v>5.57230559564013</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>59.45870792624538</v>
       </c>
       <c r="G3">
-        <v>31.36663342954763</v>
+        <v>2.074091296128323</v>
       </c>
       <c r="H3">
-        <v>31.99320805557355</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.385694416138003</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,37 +503,43 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.94742807103655</v>
+        <v>21.89430069563277</v>
       </c>
       <c r="C4">
-        <v>17.3216829128721</v>
+        <v>16.04768849635314</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.6880819956514</v>
+        <v>5.180274091793122</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>57.00682625457458</v>
       </c>
       <c r="G4">
-        <v>29.88670131265143</v>
+        <v>2.084475057267955</v>
       </c>
       <c r="H4">
-        <v>30.67171568413856</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.120628398135262</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -532,37 +550,43 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.43228483443584</v>
+        <v>21.39341055872595</v>
       </c>
       <c r="C5">
-        <v>16.94560609000019</v>
+        <v>15.67512681235907</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.05806865472404</v>
+        <v>5.019782308969888</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>55.99777465509705</v>
       </c>
       <c r="G5">
-        <v>29.27847462650548</v>
+        <v>2.088736979148126</v>
       </c>
       <c r="H5">
-        <v>30.13247104119861</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.013000316544243</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -573,37 +597,43 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.3459331673165</v>
+        <v>21.30950632035881</v>
       </c>
       <c r="C6">
-        <v>16.88259643309646</v>
+        <v>15.61272036066043</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.95265185071862</v>
+        <v>4.993076839176501</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>55.82962278183674</v>
       </c>
       <c r="G6">
-        <v>29.17716191891977</v>
+        <v>2.089446739728437</v>
       </c>
       <c r="H6">
-        <v>30.04288313066825</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.995150507489438</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -614,37 +644,43 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.94053483063946</v>
+        <v>21.88759433885589</v>
       </c>
       <c r="C7">
-        <v>17.3166484721539</v>
+        <v>16.04270016304087</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.67963870823419</v>
+        <v>5.178113149747551</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>56.99325802712689</v>
       </c>
       <c r="G7">
-        <v>29.87851970421988</v>
+        <v>2.08453240108539</v>
       </c>
       <c r="H7">
-        <v>30.66444634177958</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.119175396690778</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -655,37 +691,43 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.44981920735631</v>
+        <v>24.33500359685085</v>
       </c>
       <c r="C8">
-        <v>19.15304834552504</v>
+        <v>17.86385029533237</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.77753999105037</v>
+        <v>5.98932161291275</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>62.04203069475614</v>
       </c>
       <c r="G8">
-        <v>32.92926812233324</v>
+        <v>2.063090946248487</v>
       </c>
       <c r="H8">
-        <v>33.401491661063</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.670084938977732</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -696,37 +738,43 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.99931689265643</v>
+        <v>28.79636476834893</v>
       </c>
       <c r="C9">
-        <v>22.50298621186088</v>
+        <v>21.19193213740539</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.53512996057538</v>
+        <v>7.594000614205474</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>71.67404135382316</v>
       </c>
       <c r="G9">
-        <v>38.79240512315209</v>
+        <v>2.021269380836178</v>
       </c>
       <c r="H9">
-        <v>38.79240512315207</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.77090628414426</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -737,37 +785,43 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.16478949409955</v>
+        <v>31.91121770754893</v>
       </c>
       <c r="C10">
-        <v>24.85177195768894</v>
+        <v>23.52651545010063</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>39.67074913425817</v>
+        <v>8.822440300205949</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>78.66879836255522</v>
       </c>
       <c r="G10">
-        <v>43.19984748411071</v>
+        <v>1.989886873787658</v>
       </c>
       <c r="H10">
-        <v>43.09528175755216</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.60438417321971</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -778,37 +832,43 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.58120261681669</v>
+        <v>33.30584408196762</v>
       </c>
       <c r="C11">
-        <v>25.9083936213315</v>
+        <v>24.57576282740031</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41.56262776179974</v>
+        <v>9.404498211449882</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>81.87919436896968</v>
       </c>
       <c r="G11">
-        <v>45.22360241035982</v>
+        <v>1.975232249046918</v>
       </c>
       <c r="H11">
-        <v>45.07592090452541</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.99323330515773</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -819,37 +879,43 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.11584125027939</v>
+        <v>33.83217631475377</v>
       </c>
       <c r="C12">
-        <v>26.30823528538758</v>
+        <v>24.97248570390092</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>42.28417109416846</v>
+        <v>9.629655234035795</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>83.13543429551089</v>
       </c>
       <c r="G12">
-        <v>45.9954574582461</v>
+        <v>1.969602470496465</v>
       </c>
       <c r="H12">
-        <v>45.832212038692</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.1423952237264</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -860,37 +926,43 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.00074222628995</v>
+        <v>33.71887365619608</v>
       </c>
       <c r="C13">
-        <v>26.22210716269533</v>
+        <v>24.88704805061722</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>42.12847544200973</v>
+        <v>9.580925977939506</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>82.8646370047322</v>
       </c>
       <c r="G13">
-        <v>45.82892147096182</v>
+        <v>1.970819007361947</v>
       </c>
       <c r="H13">
-        <v>45.66899526552311</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.11017534673827</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -901,37 +973,43 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.62521098375525</v>
+        <v>33.34917193619768</v>
       </c>
       <c r="C14">
-        <v>25.94128469009133</v>
+        <v>24.60840534758324</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>41.6218618994393</v>
+        <v>9.422917477139841</v>
       </c>
       <c r="F14">
-        <v>39.19167637503958</v>
+        <v>81.98244328099481</v>
       </c>
       <c r="G14">
-        <v>45.28697241344152</v>
+        <v>1.97477086812749</v>
       </c>
       <c r="H14">
-        <v>45.13799558768613</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.00546302642135</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -942,37 +1020,43 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.39502003138259</v>
+        <v>33.12253563211359</v>
       </c>
       <c r="C15">
-        <v>25.76928623317587</v>
+        <v>24.43769200652213</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>41.31234135158158</v>
+        <v>9.326798893995454</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>81.44270545971736</v>
       </c>
       <c r="G15">
-        <v>44.95583518151462</v>
+        <v>1.977180141559143</v>
       </c>
       <c r="H15">
-        <v>44.81366233669961</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.94159111600239</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -983,37 +1067,43 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.07188099952288</v>
+        <v>31.81974017631209</v>
       </c>
       <c r="C16">
-        <v>24.78259344033413</v>
+        <v>23.45778601594576</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.54760685396386</v>
+        <v>8.784980424902804</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>78.46056736440858</v>
       </c>
       <c r="G16">
-        <v>43.06817605269892</v>
+        <v>1.990834899562355</v>
       </c>
       <c r="H16">
-        <v>42.96653888659358</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.57920778897772</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1024,37 +1114,43 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.25518550287405</v>
+        <v>31.01570472625436</v>
       </c>
       <c r="C17">
-        <v>24.17514590172208</v>
+        <v>22.85415805105183</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.46994551089819</v>
+        <v>8.459428178920357</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>76.6374369354577</v>
       </c>
       <c r="G17">
-        <v>41.91647143268377</v>
+        <v>1.999098199626485</v>
       </c>
       <c r="H17">
-        <v>41.8411406948541</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.35970117702114</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1065,37 +1161,43 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.78310292680843</v>
+        <v>30.55103883926894</v>
       </c>
       <c r="C18">
-        <v>23.82453741730915</v>
+        <v>22.50567640912982</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.85082910513925</v>
+        <v>8.274263482304342</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>75.58972992575907</v>
       </c>
       <c r="G18">
-        <v>41.25545456027405</v>
+        <v>2.003817278174515</v>
       </c>
       <c r="H18">
-        <v>41.19580777707923</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.23432020951326</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1106,37 +1208,43 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.62281832363181</v>
+        <v>30.39329420302233</v>
       </c>
       <c r="C19">
-        <v>23.70558068194162</v>
+        <v>22.38743218722177</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.64123874459688</v>
+        <v>8.211891050001899</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>75.23505720553568</v>
       </c>
       <c r="G19">
-        <v>41.03181148938855</v>
+        <v>2.005409967811012</v>
       </c>
       <c r="H19">
-        <v>40.97757238124399</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.19200510978838</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1147,37 +1255,43 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.34235580976087</v>
+        <v>31.10151476738303</v>
       </c>
       <c r="C20">
-        <v>24.23992702818093</v>
+        <v>22.91854093457703</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.58456658683808</v>
+        <v>8.493859076087485</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>76.83139531986652</v>
       </c>
       <c r="G20">
-        <v>42.03890730300353</v>
+        <v>1.998222217854779</v>
       </c>
       <c r="H20">
-        <v>41.96071950245874</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.38297438476352</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1188,37 +1302,43 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.73554477386791</v>
+        <v>33.45779739278304</v>
       </c>
       <c r="C21">
-        <v>26.02376307733549</v>
+        <v>24.6902544227409</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>41.77049275609742</v>
+        <v>9.469186484976483</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>82.24142490686603</v>
       </c>
       <c r="G21">
-        <v>45.44597784319962</v>
+        <v>1.973612533668343</v>
       </c>
       <c r="H21">
-        <v>45.29376480222327</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.03616267179296</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1229,37 +1349,43 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.29073643735127</v>
+        <v>34.98833854367104</v>
       </c>
       <c r="C22">
-        <v>27.18899507376833</v>
+        <v>25.84548091172233</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.88520724665003</v>
+        <v>10.13524106779056</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>85.91016494129371</v>
       </c>
       <c r="G22">
-        <v>47.70695197302193</v>
+        <v>1.957042592929422</v>
       </c>
       <c r="H22">
-        <v>47.51077250765837</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.47458534844167</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1270,37 +1396,43 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.46082752379201</v>
+        <v>34.171744261135</v>
       </c>
       <c r="C23">
-        <v>26.56655042773665</v>
+        <v>25.2286625528514</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.7520427948528</v>
+        <v>9.776561305617937</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>83.94821913581799</v>
       </c>
       <c r="G23">
-        <v>46.49582509737535</v>
+        <v>1.96594125852968</v>
       </c>
       <c r="H23">
-        <v>46.32273219128934</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.23931758759462</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1311,37 +1443,43 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.30295418608782</v>
+        <v>31.0627276732051</v>
       </c>
       <c r="C24">
-        <v>24.21064387702308</v>
+        <v>22.88943803115028</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.53274526653529</v>
+        <v>8.478286739410834</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>76.74370563800682</v>
       </c>
       <c r="G24">
-        <v>41.98355079033224</v>
+        <v>1.998618345786337</v>
       </c>
       <c r="H24">
-        <v>41.9066529177251</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.37245006172119</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1352,37 +1490,43 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.80380999493566</v>
+        <v>27.6217282005989</v>
       </c>
       <c r="C25">
-        <v>21.61996219135413</v>
+        <v>20.31419201800102</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>34.00266548124377</v>
+        <v>7.154697207624522</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>69.09057867979418</v>
       </c>
       <c r="G25">
-        <v>37.21346437507547</v>
+        <v>2.032631601779349</v>
       </c>
       <c r="H25">
-        <v>37.31787862726584</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.46990041222908</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.97395541455049</v>
+        <v>12.22888293943178</v>
       </c>
       <c r="C2">
-        <v>18.33967958155278</v>
+        <v>7.256930484869454</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.208822437647829</v>
+        <v>15.54396231228834</v>
       </c>
       <c r="F2">
-        <v>63.38987510453388</v>
+        <v>32.42987991854131</v>
       </c>
       <c r="G2">
-        <v>2.057320941128455</v>
+        <v>26.99240176875241</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.948543516162893</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14.84307267031175</v>
       </c>
       <c r="J2">
-        <v>9.820424445649151</v>
+        <v>5.087684368255761</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.11315283516977</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.50904372618902</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.71575997123306</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.09418211558562</v>
+        <v>11.42286587370339</v>
       </c>
       <c r="C3">
-        <v>16.9403159753699</v>
+        <v>6.777421033311164</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.57230559564013</v>
+        <v>14.83123375760364</v>
       </c>
       <c r="F3">
-        <v>59.45870792624538</v>
+        <v>31.35690257618218</v>
       </c>
       <c r="G3">
-        <v>2.074091296128323</v>
+        <v>26.57951207362697</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.995539681890769</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.94978679473943</v>
       </c>
       <c r="J3">
-        <v>9.385694416138003</v>
+        <v>5.139395453978038</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.43139917694399</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.81144093922502</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.93762208487525</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.89430069563277</v>
+        <v>10.89959276582808</v>
       </c>
       <c r="C4">
-        <v>16.04768849635314</v>
+        <v>6.466975186433036</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.180274091793122</v>
+        <v>14.38469147188808</v>
       </c>
       <c r="F4">
-        <v>57.00682625457458</v>
+        <v>30.70626533895148</v>
       </c>
       <c r="G4">
-        <v>2.084475057267955</v>
+        <v>26.35422110775466</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.03109871382501</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.02687155821002</v>
       </c>
       <c r="J4">
-        <v>9.120628398135262</v>
+        <v>5.171934933359401</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.990412197496253</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.37198405891295</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.07665484328173</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.39341055872595</v>
+        <v>10.67918653623244</v>
       </c>
       <c r="C5">
-        <v>15.67512681235907</v>
+        <v>6.336412862812002</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.019782308969888</v>
+        <v>14.20072224522546</v>
       </c>
       <c r="F5">
-        <v>55.99777465509705</v>
+        <v>30.44351194624688</v>
       </c>
       <c r="G5">
-        <v>2.088736979148126</v>
+        <v>26.26935767346601</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.04720786953885</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.06106150339704</v>
       </c>
       <c r="J5">
-        <v>9.013000316544243</v>
+        <v>5.18539966878961</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.805086525152207</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.19033622051808</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.13404553384987</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.30950632035881</v>
+        <v>10.64215443129597</v>
       </c>
       <c r="C6">
-        <v>15.61272036066043</v>
+        <v>6.314487680319478</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.993076839176501</v>
+        <v>14.17006136373674</v>
       </c>
       <c r="F6">
-        <v>55.82962278183674</v>
+        <v>30.4000360347574</v>
       </c>
       <c r="G6">
-        <v>2.089446739728437</v>
+        <v>26.25568061569267</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.04997862883566</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.06690277265282</v>
       </c>
       <c r="J6">
-        <v>8.995150507489438</v>
+        <v>5.187648016184374</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.773974425924273</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.16002629620218</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.14362030817832</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.88759433885589</v>
+        <v>10.89664935468092</v>
       </c>
       <c r="C7">
-        <v>16.04270016304087</v>
+        <v>6.465230816520882</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.178113149747551</v>
+        <v>14.38221814579038</v>
       </c>
       <c r="F7">
-        <v>56.99325802712689</v>
+        <v>30.70271164363404</v>
       </c>
       <c r="G7">
-        <v>2.08453240108539</v>
+        <v>26.35304871300987</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.03130950071975</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.02732157804714</v>
       </c>
       <c r="J7">
-        <v>9.119175396690778</v>
+        <v>5.172115686796924</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.987935564199454</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.36954434648506</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.07742582798936</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.33500359685085</v>
+        <v>11.9568363343251</v>
       </c>
       <c r="C8">
-        <v>17.86385029533237</v>
+        <v>7.094906285611692</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.98932161291275</v>
+        <v>15.30020131126363</v>
       </c>
       <c r="F8">
-        <v>62.04203069475614</v>
+        <v>32.058413732715</v>
       </c>
       <c r="G8">
-        <v>2.063090946248487</v>
+        <v>26.84409526558324</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.963315448841952</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14.87738792045131</v>
       </c>
       <c r="J8">
-        <v>9.670084938977732</v>
+        <v>5.10535456966624</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.88273286380728</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.27094731628941</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.79169210308315</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.79636476834893</v>
+        <v>13.81242379013539</v>
       </c>
       <c r="C9">
-        <v>21.19193213740539</v>
+        <v>8.203803577958029</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.594000614205474</v>
+        <v>17.02063477689869</v>
       </c>
       <c r="F9">
-        <v>71.67404135382316</v>
+        <v>34.76836151613854</v>
       </c>
       <c r="G9">
-        <v>2.021269380836178</v>
+        <v>28.03654494359136</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.886298748390626</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14.6812461720643</v>
       </c>
       <c r="J9">
-        <v>10.77090628414426</v>
+        <v>4.980390160773203</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.45995286918247</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.94197167948292</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.25233355922205</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.91121770754893</v>
+        <v>15.042153730942</v>
       </c>
       <c r="C10">
-        <v>23.52651545010063</v>
+        <v>8.943756869421875</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.822440300205949</v>
+        <v>18.22652586395679</v>
       </c>
       <c r="F10">
-        <v>78.66879836255522</v>
+        <v>36.77479813356781</v>
       </c>
       <c r="G10">
-        <v>1.989886873787658</v>
+        <v>29.05855385564171</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.86854333348</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.60570161214011</v>
       </c>
       <c r="J10">
-        <v>11.60438417321971</v>
+        <v>4.891756792404212</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.51146166545933</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.14141540963533</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.86688846881727</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.30584408196762</v>
+        <v>15.57322470626185</v>
       </c>
       <c r="C11">
-        <v>24.57576282740031</v>
+        <v>9.264645788374565</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.404498211449882</v>
+        <v>18.76113092999846</v>
       </c>
       <c r="F11">
-        <v>81.87919436896968</v>
+        <v>37.68826146981824</v>
       </c>
       <c r="G11">
-        <v>1.975232249046918</v>
+        <v>29.55607245176327</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.869922689842362</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>14.58827210488993</v>
       </c>
       <c r="J11">
-        <v>11.99323330515773</v>
+        <v>4.852017786035037</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.96688297422894</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>17.76723818786511</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.69342536465107</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.83217631475377</v>
+        <v>15.77030796256101</v>
       </c>
       <c r="C12">
-        <v>24.97248570390092</v>
+        <v>9.38394216915945</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.629655234035795</v>
+        <v>18.96148782394571</v>
       </c>
       <c r="F12">
-        <v>83.13543429551089</v>
+        <v>38.03409895511481</v>
       </c>
       <c r="G12">
-        <v>1.969602470496465</v>
+        <v>29.74921104830933</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.87189333166787</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>14.58428555596239</v>
       </c>
       <c r="J12">
-        <v>12.1423952237264</v>
+        <v>4.837043658581984</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.13608070288631</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>17.99968200035171</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.62796858584283</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.71887365619608</v>
+        <v>15.72804054119486</v>
       </c>
       <c r="C13">
-        <v>24.88704805061722</v>
+        <v>9.35834744915427</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.580925977939506</v>
+        <v>18.91843115524546</v>
       </c>
       <c r="F13">
-        <v>82.8646370047322</v>
+        <v>37.95962218157366</v>
       </c>
       <c r="G13">
-        <v>1.970819007361947</v>
+        <v>29.70740368022629</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.871403062937556</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>14.58502498049115</v>
       </c>
       <c r="J13">
-        <v>12.11017534673827</v>
+        <v>4.84026546208309</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.09978533730533</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>17.94982173382915</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.64205631586743</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.34917193619768</v>
+        <v>15.58951914934263</v>
       </c>
       <c r="C14">
-        <v>24.60840534758324</v>
+        <v>9.274504551611617</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.422917477139841</v>
+        <v>18.77765658644476</v>
       </c>
       <c r="F14">
-        <v>81.98244328099481</v>
+        <v>37.71671601220945</v>
       </c>
       <c r="G14">
-        <v>1.97477086812749</v>
+        <v>29.57186683347883</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.870055271642345</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>14.58789070368532</v>
       </c>
       <c r="J14">
-        <v>12.00546302642135</v>
+        <v>4.850784424973027</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.98086809716665</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>17.78645202697684</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.68803582729081</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.12253563211359</v>
+        <v>15.50414868245294</v>
       </c>
       <c r="C15">
-        <v>24.43769200652213</v>
+        <v>9.222860939550994</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.326798893995454</v>
+        <v>18.69115448853652</v>
       </c>
       <c r="F15">
-        <v>81.44270545971736</v>
+        <v>37.56791519517716</v>
       </c>
       <c r="G15">
-        <v>1.977180141559143</v>
+        <v>29.48946516714583</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.869421002091666</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>14.58999181636791</v>
       </c>
       <c r="J15">
-        <v>11.94159111600239</v>
+        <v>4.857236964048945</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.90760438104791</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>17.68579435950848</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.71622831326712</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.81974017631209</v>
+        <v>15.00688121826269</v>
       </c>
       <c r="C16">
-        <v>23.45778601594576</v>
+        <v>8.922473317735111</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.784980424902804</v>
+        <v>18.19129988987356</v>
       </c>
       <c r="F16">
-        <v>78.46056736440858</v>
+        <v>36.71509979429982</v>
       </c>
       <c r="G16">
-        <v>1.990834899562355</v>
+        <v>29.02670041188486</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.868650970511156</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.60719655314595</v>
       </c>
       <c r="J16">
-        <v>11.57920778897772</v>
+        <v>4.89436473306047</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.48124053259419</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>17.09987640364085</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.87825911137534</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.01570472625436</v>
+        <v>14.69460225115996</v>
       </c>
       <c r="C17">
-        <v>22.85415805105183</v>
+        <v>8.734198717285103</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.459428178920357</v>
+        <v>17.88101498922387</v>
       </c>
       <c r="F17">
-        <v>76.6374369354577</v>
+        <v>36.19197290009147</v>
       </c>
       <c r="G17">
-        <v>1.999098199626485</v>
+        <v>28.75119823489906</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.870662579023337</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.62221353723546</v>
       </c>
       <c r="J17">
-        <v>11.35970117702114</v>
+        <v>4.917283725863147</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.21383379281551</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>16.77044837746472</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.97811302889021</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.55103883926894</v>
+        <v>14.51231681419672</v>
       </c>
       <c r="C18">
-        <v>22.50567640912982</v>
+        <v>8.624425757203008</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.274263482304342</v>
+        <v>17.70123623048272</v>
       </c>
       <c r="F18">
-        <v>75.58972992575907</v>
+        <v>35.89116035541129</v>
       </c>
       <c r="G18">
-        <v>2.003817278174515</v>
+        <v>28.59580293754204</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>9.872704198079646</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.63243392557009</v>
       </c>
       <c r="J18">
-        <v>11.23432020951326</v>
+        <v>4.930521385648611</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.05786914158685</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>16.59768356428813</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.03572566544247</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.39329420302233</v>
+        <v>14.45013780825546</v>
       </c>
       <c r="C19">
-        <v>22.38743218722177</v>
+        <v>8.587002658089768</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.211891050001899</v>
+        <v>17.64014388930808</v>
       </c>
       <c r="F19">
-        <v>75.23505720553568</v>
+        <v>35.78932951343434</v>
       </c>
       <c r="G19">
-        <v>2.005409967811012</v>
+        <v>28.54371370689481</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9.873544739059762</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.63616093643511</v>
       </c>
       <c r="J19">
-        <v>11.19200510978838</v>
+        <v>4.935013194741922</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.00469035563853</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>16.53893411588362</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.05526428761076</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.10151476738303</v>
+        <v>14.72812092566252</v>
       </c>
       <c r="C20">
-        <v>22.91854093457703</v>
+        <v>8.754393989823926</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.493859076087485</v>
+        <v>17.91418169468193</v>
       </c>
       <c r="F20">
-        <v>76.83139531986652</v>
+        <v>36.24765416787771</v>
       </c>
       <c r="G20">
-        <v>1.998222217854779</v>
+        <v>28.78020817137947</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.87035625638962</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.62044984754739</v>
       </c>
       <c r="J20">
-        <v>11.38297438476352</v>
+        <v>4.914838306147211</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.24252295002269</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.80230186948959</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.96746513339141</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.45779739278304</v>
+        <v>15.63031494806354</v>
       </c>
       <c r="C21">
-        <v>24.6902544227409</v>
+        <v>9.299191058357973</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.469186484976483</v>
+        <v>18.81906261405161</v>
       </c>
       <c r="F21">
-        <v>82.24142490686603</v>
+        <v>37.78806656702213</v>
       </c>
       <c r="G21">
-        <v>1.973612533668343</v>
+        <v>29.61154829991404</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.870411123428259</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>14.58697658497177</v>
       </c>
       <c r="J21">
-        <v>12.03616267179296</v>
+        <v>4.847692815413309</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.01588515426058</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.83456026854572</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.67452462307291</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.98833854367104</v>
+        <v>16.19653600657551</v>
       </c>
       <c r="C22">
-        <v>25.84548091172233</v>
+        <v>9.642345916342096</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.13524106779056</v>
+        <v>19.39827478570514</v>
       </c>
       <c r="F22">
-        <v>85.91016494129371</v>
+        <v>38.79434844167497</v>
       </c>
       <c r="G22">
-        <v>1.957042592929422</v>
+        <v>30.18252033256613</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9.878932077802379</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>14.58042140536449</v>
       </c>
       <c r="J22">
-        <v>12.47458534844167</v>
+        <v>4.804236849852339</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.5023379849159</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.50276574460283</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.48439067393559</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.171744261135</v>
+        <v>15.89645711033983</v>
       </c>
       <c r="C23">
-        <v>25.2286625528514</v>
+        <v>9.460363029365237</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.776561305617937</v>
+        <v>19.09027216836392</v>
       </c>
       <c r="F23">
-        <v>83.94821913581799</v>
+        <v>38.25736661623938</v>
       </c>
       <c r="G23">
-        <v>1.96594125852968</v>
+        <v>29.87523708460212</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.873577863364737</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>14.5824575223618</v>
       </c>
       <c r="J23">
-        <v>12.23931758759462</v>
+        <v>4.827394267726072</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.24443299944645</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.14852275501101</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.58576197193639</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.0627276732051</v>
+        <v>14.71297570909161</v>
       </c>
       <c r="C24">
-        <v>22.88943803115028</v>
+        <v>8.745268480253333</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.478286739410834</v>
+        <v>17.89919135611881</v>
       </c>
       <c r="F24">
-        <v>76.74370563800682</v>
+        <v>36.22248083952434</v>
       </c>
       <c r="G24">
-        <v>1.998618345786337</v>
+        <v>28.76708345556309</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.87049199456966</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.62124228216072</v>
       </c>
       <c r="J24">
-        <v>11.37245006172119</v>
+        <v>4.915943688998911</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.22955952730691</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.78790579888254</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.97227840451776</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.6217282005989</v>
+        <v>13.33409891578768</v>
       </c>
       <c r="C25">
-        <v>20.31419201800102</v>
+        <v>7.917101866498568</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.154697207624522</v>
+        <v>16.56485320764475</v>
       </c>
       <c r="F25">
-        <v>69.09057867979418</v>
+        <v>34.03150628580664</v>
       </c>
       <c r="G25">
-        <v>2.032631601779349</v>
+        <v>27.68868364347649</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.900651437835521</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14.72293743802874</v>
       </c>
       <c r="J25">
-        <v>10.46990041222908</v>
+        <v>5.013603852348139</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.05220886658252</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.50128617962395</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.39619506369558</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.22888293943178</v>
+        <v>9.208741113779867</v>
       </c>
       <c r="C2">
-        <v>7.256930484869454</v>
+        <v>4.539354369108066</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.54396231228834</v>
+        <v>19.54081999720889</v>
       </c>
       <c r="F2">
-        <v>32.42987991854131</v>
+        <v>41.44308217402294</v>
       </c>
       <c r="G2">
-        <v>26.99240176875241</v>
+        <v>34.80040057236256</v>
       </c>
       <c r="H2">
-        <v>9.948543516162893</v>
+        <v>15.82221624725277</v>
       </c>
       <c r="I2">
-        <v>14.84307267031175</v>
+        <v>22.84200665700756</v>
       </c>
       <c r="J2">
-        <v>5.087684368255761</v>
+        <v>8.450590942829677</v>
       </c>
       <c r="K2">
-        <v>11.11315283516977</v>
+        <v>9.477224571857272</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.50904372618902</v>
+        <v>17.9252899035782</v>
       </c>
       <c r="N2">
-        <v>12.71575997123306</v>
+        <v>19.63762078740946</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.42286587370339</v>
+        <v>8.960847332564697</v>
       </c>
       <c r="C3">
-        <v>6.777421033311164</v>
+        <v>4.358208924005166</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.83123375760364</v>
+        <v>19.45028667546163</v>
       </c>
       <c r="F3">
-        <v>31.35690257618218</v>
+        <v>41.36656660365244</v>
       </c>
       <c r="G3">
-        <v>26.57951207362697</v>
+        <v>34.84918848737769</v>
       </c>
       <c r="H3">
-        <v>9.995539681890769</v>
+        <v>15.8698950994418</v>
       </c>
       <c r="I3">
-        <v>14.94978679473943</v>
+        <v>22.92395237437858</v>
       </c>
       <c r="J3">
-        <v>5.139395453978038</v>
+        <v>8.467105432882777</v>
       </c>
       <c r="K3">
-        <v>10.43139917694399</v>
+        <v>9.321605766843465</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.81144093922502</v>
+        <v>17.82427926332689</v>
       </c>
       <c r="N3">
-        <v>12.93762208487525</v>
+        <v>19.70183387900351</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.89959276582808</v>
+        <v>8.80706270628637</v>
       </c>
       <c r="C4">
-        <v>6.466975186433036</v>
+        <v>4.244093993349057</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.38469147188808</v>
+        <v>19.3983861489304</v>
       </c>
       <c r="F4">
-        <v>30.70626533895148</v>
+        <v>41.32976643811801</v>
       </c>
       <c r="G4">
-        <v>26.35422110775466</v>
+        <v>34.88957252525545</v>
       </c>
       <c r="H4">
-        <v>10.03109871382501</v>
+        <v>15.90173952600342</v>
       </c>
       <c r="I4">
-        <v>15.02687155821002</v>
+        <v>22.97851285037408</v>
       </c>
       <c r="J4">
-        <v>5.171934933359401</v>
+        <v>8.477749708025204</v>
       </c>
       <c r="K4">
-        <v>9.990412197496253</v>
+        <v>9.226718091354323</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.37198405891295</v>
+        <v>17.76540038192556</v>
       </c>
       <c r="N4">
-        <v>13.07665484328173</v>
+        <v>19.74306799528815</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.67918653623244</v>
+        <v>8.744098856646197</v>
       </c>
       <c r="C5">
-        <v>6.336412862812002</v>
+        <v>4.196940808209475</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.20072224522546</v>
+        <v>19.37817907057669</v>
       </c>
       <c r="F5">
-        <v>30.44351194624688</v>
+        <v>41.31733979157597</v>
       </c>
       <c r="G5">
-        <v>26.26935767346601</v>
+        <v>34.90864241716294</v>
       </c>
       <c r="H5">
-        <v>10.04720786953885</v>
+        <v>15.91536202595342</v>
       </c>
       <c r="I5">
-        <v>15.06106150339704</v>
+        <v>23.00181279474091</v>
       </c>
       <c r="J5">
-        <v>5.18539966878961</v>
+        <v>8.48221453344873</v>
       </c>
       <c r="K5">
-        <v>9.805086525152207</v>
+        <v>9.18826827945715</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.19033622051808</v>
+        <v>17.74221619107715</v>
       </c>
       <c r="N5">
-        <v>13.13404553384987</v>
+        <v>19.76032699821053</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.64215443129597</v>
+        <v>8.733628974189322</v>
       </c>
       <c r="C6">
-        <v>6.314487680319478</v>
+        <v>4.189074174472257</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.17006136373674</v>
+        <v>19.37488107538586</v>
       </c>
       <c r="F6">
-        <v>30.4000360347574</v>
+        <v>41.31543179717714</v>
       </c>
       <c r="G6">
-        <v>26.25568061569267</v>
+        <v>34.91196648779669</v>
       </c>
       <c r="H6">
-        <v>10.04997862883566</v>
+        <v>15.91766301293878</v>
       </c>
       <c r="I6">
-        <v>15.06690277265282</v>
+        <v>23.00574608058658</v>
       </c>
       <c r="J6">
-        <v>5.187648016184374</v>
+        <v>8.482963607970859</v>
       </c>
       <c r="K6">
-        <v>9.773974425924273</v>
+        <v>9.181898357865498</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.16002629620218</v>
+        <v>17.73841590333355</v>
       </c>
       <c r="N6">
-        <v>13.14362030817832</v>
+        <v>19.76322041009797</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.89664935468092</v>
+        <v>8.806214612290225</v>
       </c>
       <c r="C7">
-        <v>6.465230816520882</v>
+        <v>4.243460595278853</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.38221814579038</v>
+        <v>19.39810979213609</v>
       </c>
       <c r="F7">
-        <v>30.70271164363404</v>
+        <v>41.32958843235501</v>
       </c>
       <c r="G7">
-        <v>26.35304871300987</v>
+        <v>34.88981914140005</v>
       </c>
       <c r="H7">
-        <v>10.03130950071975</v>
+        <v>15.90192063027465</v>
       </c>
       <c r="I7">
-        <v>15.02732157804714</v>
+        <v>22.97882276688693</v>
       </c>
       <c r="J7">
-        <v>5.172115686796924</v>
+        <v>8.477809406698906</v>
       </c>
       <c r="K7">
-        <v>9.987935564199454</v>
+        <v>9.226198594876386</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.36954434648506</v>
+        <v>17.76508440981039</v>
       </c>
       <c r="N7">
-        <v>13.07742582798936</v>
+        <v>19.74329890904669</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.9568363343251</v>
+        <v>9.123653654221677</v>
       </c>
       <c r="C8">
-        <v>7.094906285611692</v>
+        <v>4.477538756953811</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.30020131126363</v>
+        <v>19.50884854178868</v>
       </c>
       <c r="F8">
-        <v>32.058413732715</v>
+        <v>41.41459313328139</v>
       </c>
       <c r="G8">
-        <v>26.84409526558324</v>
+        <v>34.81505319044051</v>
       </c>
       <c r="H8">
-        <v>9.963315448841952</v>
+        <v>15.83812235718973</v>
       </c>
       <c r="I8">
-        <v>14.87738792045131</v>
+        <v>22.86937952241565</v>
       </c>
       <c r="J8">
-        <v>5.10535456966624</v>
+        <v>8.456180700915521</v>
       </c>
       <c r="K8">
-        <v>10.88273286380728</v>
+        <v>9.423460145687889</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.27094731628941</v>
+        <v>17.88982124944749</v>
       </c>
       <c r="N8">
-        <v>12.79169210308315</v>
+        <v>19.65938724744436</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.81242379013539</v>
+        <v>9.729474677484449</v>
       </c>
       <c r="C9">
-        <v>8.203803577958029</v>
+        <v>4.910681920191025</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.02063477689869</v>
+        <v>19.7545233199762</v>
       </c>
       <c r="F9">
-        <v>34.76836151613854</v>
+        <v>41.66153524734903</v>
       </c>
       <c r="G9">
-        <v>28.03654494359136</v>
+        <v>34.75153007960296</v>
       </c>
       <c r="H9">
-        <v>9.886298748390626</v>
+        <v>15.73342193016839</v>
       </c>
       <c r="I9">
-        <v>14.6812461720643</v>
+        <v>22.68851234817755</v>
       </c>
       <c r="J9">
-        <v>4.980390160773203</v>
+        <v>8.41775067951971</v>
       </c>
       <c r="K9">
-        <v>12.45995286918247</v>
+        <v>9.813327908322904</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.94197167948292</v>
+        <v>18.15845914953627</v>
       </c>
       <c r="N9">
-        <v>12.25233355922205</v>
+        <v>19.50911059409066</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.042153730942</v>
+        <v>10.15925493030568</v>
       </c>
       <c r="C10">
-        <v>8.943756869421875</v>
+        <v>5.209735735662123</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.22652586395679</v>
+        <v>19.95133801525892</v>
       </c>
       <c r="F10">
-        <v>36.77479813356781</v>
+        <v>41.89102188651928</v>
       </c>
       <c r="G10">
-        <v>29.05855385564171</v>
+        <v>34.75590692640617</v>
       </c>
       <c r="H10">
-        <v>9.86854333348</v>
+        <v>15.66896765642511</v>
       </c>
       <c r="I10">
-        <v>14.60570161214011</v>
+        <v>22.57629297279307</v>
       </c>
       <c r="J10">
-        <v>4.891756792404212</v>
+        <v>8.391919781371877</v>
       </c>
       <c r="K10">
-        <v>13.51146166545933</v>
+        <v>10.09869747488639</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.14141540963533</v>
+        <v>18.36920010574296</v>
       </c>
       <c r="N10">
-        <v>11.86688846881727</v>
+        <v>19.4073127150367</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.57322470626185</v>
+        <v>10.35048620873135</v>
       </c>
       <c r="C11">
-        <v>9.264645788374565</v>
+        <v>5.341044334916726</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.76113092999846</v>
+        <v>20.0441683884303</v>
       </c>
       <c r="F11">
-        <v>37.68826146981824</v>
+        <v>42.00562316982126</v>
       </c>
       <c r="G11">
-        <v>29.55607245176327</v>
+        <v>34.76903516532674</v>
       </c>
       <c r="H11">
-        <v>9.869922689842362</v>
+        <v>15.64235919902097</v>
       </c>
       <c r="I11">
-        <v>14.58827210488993</v>
+        <v>22.52974742462678</v>
       </c>
       <c r="J11">
-        <v>4.852017786035037</v>
+        <v>8.380685231932953</v>
       </c>
       <c r="K11">
-        <v>13.96688297422894</v>
+        <v>10.22769453608081</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.76723818786511</v>
+        <v>18.46768501551772</v>
       </c>
       <c r="N11">
-        <v>11.69342536465107</v>
+        <v>19.36285235667756</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.77030796256101</v>
+        <v>10.42221414717156</v>
       </c>
       <c r="C12">
-        <v>9.38394216915945</v>
+        <v>5.390047520725121</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.96148782394571</v>
+        <v>20.07977272714772</v>
       </c>
       <c r="F12">
-        <v>38.03409895511481</v>
+        <v>42.05046390399065</v>
       </c>
       <c r="G12">
-        <v>29.74921104830933</v>
+        <v>34.77560963273713</v>
       </c>
       <c r="H12">
-        <v>9.87189333166787</v>
+        <v>15.63267377037052</v>
       </c>
       <c r="I12">
-        <v>14.58428555596239</v>
+        <v>22.5127710759647</v>
       </c>
       <c r="J12">
-        <v>4.837043658581984</v>
+        <v>8.376504809736126</v>
       </c>
       <c r="K12">
-        <v>14.13608070288631</v>
+        <v>10.27637740063656</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.99968200035171</v>
+        <v>18.50532954641135</v>
       </c>
       <c r="N12">
-        <v>11.62796858584283</v>
+        <v>19.34628067576991</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.72804054119486</v>
+        <v>10.40679789385366</v>
       </c>
       <c r="C13">
-        <v>9.35834744915427</v>
+        <v>5.379526431537364</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.91843115524546</v>
+        <v>20.07208498704891</v>
       </c>
       <c r="F13">
-        <v>37.95962218157366</v>
+        <v>42.04074284566121</v>
       </c>
       <c r="G13">
-        <v>29.70740368022629</v>
+        <v>34.77412239824996</v>
       </c>
       <c r="H13">
-        <v>9.871403062937556</v>
+        <v>15.63474231824687</v>
       </c>
       <c r="I13">
-        <v>14.58502498049115</v>
+        <v>22.51639832337653</v>
       </c>
       <c r="J13">
-        <v>4.84026546208309</v>
+        <v>8.377401859154796</v>
       </c>
       <c r="K13">
-        <v>14.09978533730533</v>
+        <v>10.26590077486559</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.94982173382915</v>
+        <v>18.49720695753038</v>
       </c>
       <c r="N13">
-        <v>11.64205631586743</v>
+        <v>19.34983794018886</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.58951914934263</v>
+        <v>10.35640147148338</v>
       </c>
       <c r="C14">
-        <v>9.274504551611617</v>
+        <v>5.345090506322786</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.77765658644476</v>
+        <v>20.04708866368506</v>
       </c>
       <c r="F14">
-        <v>37.71671601220945</v>
+        <v>42.00928345515705</v>
       </c>
       <c r="G14">
-        <v>29.57186683347883</v>
+        <v>34.76954391928965</v>
       </c>
       <c r="H14">
-        <v>9.870055271642345</v>
+        <v>15.64155454094685</v>
       </c>
       <c r="I14">
-        <v>14.58789070368532</v>
+        <v>22.52833774402733</v>
       </c>
       <c r="J14">
-        <v>4.850784424973027</v>
+        <v>8.380339827858428</v>
       </c>
       <c r="K14">
-        <v>13.98086809716665</v>
+        <v>10.2317032882118</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.78645202697684</v>
+        <v>18.470775181481</v>
       </c>
       <c r="N14">
-        <v>11.68803582729081</v>
+        <v>19.36148370082364</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.50414868245294</v>
+        <v>10.32544068682306</v>
       </c>
       <c r="C15">
-        <v>9.222860939550994</v>
+        <v>5.323902581784243</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.69115448853652</v>
+        <v>20.03183580092718</v>
       </c>
       <c r="F15">
-        <v>37.56791519517716</v>
+        <v>41.99020093425446</v>
       </c>
       <c r="G15">
-        <v>29.48946516714583</v>
+        <v>34.76694825671337</v>
       </c>
       <c r="H15">
-        <v>9.869421002091666</v>
+        <v>15.64577811197589</v>
       </c>
       <c r="I15">
-        <v>14.58999181636791</v>
+        <v>22.53573561426135</v>
       </c>
       <c r="J15">
-        <v>4.857236964048945</v>
+        <v>8.38214902664402</v>
       </c>
       <c r="K15">
-        <v>13.90760438104791</v>
+        <v>10.21073340183563</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.68579435950848</v>
+        <v>18.45462981070119</v>
       </c>
       <c r="N15">
-        <v>11.71622831326712</v>
+        <v>19.36865147322854</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.00688121826269</v>
+        <v>10.14666512779028</v>
       </c>
       <c r="C16">
-        <v>8.922473317735111</v>
+        <v>5.201055630769074</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.19129988987356</v>
+        <v>19.94533577212823</v>
       </c>
       <c r="F16">
-        <v>36.71509979429982</v>
+        <v>41.88373580795891</v>
       </c>
       <c r="G16">
-        <v>29.02670041188486</v>
+        <v>34.75527324595217</v>
       </c>
       <c r="H16">
-        <v>9.868650970511156</v>
+        <v>15.67076120950222</v>
       </c>
       <c r="I16">
-        <v>14.60719655314595</v>
+        <v>22.57942561432285</v>
       </c>
       <c r="J16">
-        <v>4.89436473306047</v>
+        <v>8.392664339948954</v>
       </c>
       <c r="K16">
-        <v>13.48124053259419</v>
+        <v>10.09024660531714</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.09987640364085</v>
+        <v>18.36281435264678</v>
       </c>
       <c r="N16">
-        <v>11.87825911137534</v>
+        <v>19.41025538361035</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.69460225115996</v>
+        <v>10.03584311613893</v>
       </c>
       <c r="C17">
-        <v>8.734198717285103</v>
+        <v>5.124450615942678</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.88101498922387</v>
+        <v>19.89309962775187</v>
       </c>
       <c r="F17">
-        <v>36.19197290009147</v>
+        <v>41.82102072213709</v>
       </c>
       <c r="G17">
-        <v>28.75119823489906</v>
+        <v>34.75096514771555</v>
       </c>
       <c r="H17">
-        <v>9.870662579023337</v>
+        <v>15.68678261218748</v>
       </c>
       <c r="I17">
-        <v>14.62221353723546</v>
+        <v>22.60738279914509</v>
       </c>
       <c r="J17">
-        <v>4.917283725863147</v>
+        <v>8.399247068177106</v>
       </c>
       <c r="K17">
-        <v>13.21383379281551</v>
+        <v>10.01608748668355</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.77044837746472</v>
+        <v>18.30714071350267</v>
       </c>
       <c r="N17">
-        <v>11.97811302889021</v>
+        <v>19.43625046183931</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.51231681419672</v>
+        <v>9.971702458254136</v>
       </c>
       <c r="C18">
-        <v>8.624425757203008</v>
+        <v>5.079946002826508</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.70123623048272</v>
+        <v>19.8633666577354</v>
       </c>
       <c r="F18">
-        <v>35.89116035541129</v>
+        <v>41.78591094441851</v>
       </c>
       <c r="G18">
-        <v>28.59580293754204</v>
+        <v>34.74953553788632</v>
       </c>
       <c r="H18">
-        <v>9.872704198079646</v>
+        <v>15.69625294015901</v>
       </c>
       <c r="I18">
-        <v>14.63243392557009</v>
+        <v>22.62388682455013</v>
       </c>
       <c r="J18">
-        <v>4.930521385648611</v>
+        <v>8.403081873712761</v>
       </c>
       <c r="K18">
-        <v>13.05786914158685</v>
+        <v>9.973358771705465</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.59768356428813</v>
+        <v>18.27536670526214</v>
       </c>
       <c r="N18">
-        <v>12.03572566544247</v>
+        <v>19.45137616045157</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.45013780825546</v>
+        <v>9.949919346292853</v>
       </c>
       <c r="C19">
-        <v>8.587002658089768</v>
+        <v>5.064802657728015</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.64014388930808</v>
+        <v>19.85335383230479</v>
       </c>
       <c r="F19">
-        <v>35.78932951343434</v>
+        <v>41.774189343628</v>
       </c>
       <c r="G19">
-        <v>28.54371370689481</v>
+        <v>34.7492314673108</v>
       </c>
       <c r="H19">
-        <v>9.873544739059762</v>
+        <v>15.69950324933687</v>
       </c>
       <c r="I19">
-        <v>14.63616093643511</v>
+        <v>22.62954753490284</v>
       </c>
       <c r="J19">
-        <v>4.935013194741922</v>
+        <v>8.404388629827892</v>
       </c>
       <c r="K19">
-        <v>13.00469035563853</v>
+        <v>9.958880280979153</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.53893411588362</v>
+        <v>18.26465194816777</v>
       </c>
       <c r="N19">
-        <v>12.05526428761076</v>
+        <v>19.45652738798357</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.72812092566252</v>
+        <v>10.0476821218413</v>
       </c>
       <c r="C20">
-        <v>8.754393989823926</v>
+        <v>5.132651552086577</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.91418169468193</v>
+        <v>19.89862813893939</v>
       </c>
       <c r="F20">
-        <v>36.24765416787771</v>
+        <v>41.82759742421479</v>
       </c>
       <c r="G20">
-        <v>28.78020817137947</v>
+        <v>34.75131524092099</v>
       </c>
       <c r="H20">
-        <v>9.87035625638962</v>
+        <v>15.68505068550998</v>
       </c>
       <c r="I20">
-        <v>14.62044984754739</v>
+        <v>22.60436283491029</v>
       </c>
       <c r="J20">
-        <v>4.914838306147211</v>
+        <v>8.398541298729254</v>
       </c>
       <c r="K20">
-        <v>13.24252295002269</v>
+        <v>10.02398989888472</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.80230186948959</v>
+        <v>18.31304178721414</v>
       </c>
       <c r="N20">
-        <v>11.96746513339141</v>
+        <v>19.4334652403278</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.63031494806354</v>
+        <v>10.37122331473088</v>
       </c>
       <c r="C21">
-        <v>9.299191058357973</v>
+        <v>5.355225018446426</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.81906261405161</v>
+        <v>20.05441862210056</v>
       </c>
       <c r="F21">
-        <v>37.78806656702213</v>
+        <v>42.01848486097617</v>
       </c>
       <c r="G21">
-        <v>29.61154829991404</v>
+        <v>34.77084521781973</v>
       </c>
       <c r="H21">
-        <v>9.870411123428259</v>
+        <v>15.63954301992706</v>
       </c>
       <c r="I21">
-        <v>14.58697658497177</v>
+        <v>22.52481320663256</v>
       </c>
       <c r="J21">
-        <v>4.847692815413309</v>
+        <v>8.379474873530118</v>
       </c>
       <c r="K21">
-        <v>14.01588515426058</v>
+        <v>10.24175278165115</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.83456026854572</v>
+        <v>18.47852953420132</v>
       </c>
       <c r="N21">
-        <v>11.67452462307291</v>
+        <v>19.35805589029716</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.19653600657551</v>
+        <v>10.57864178542149</v>
       </c>
       <c r="C22">
-        <v>9.642345916342096</v>
+        <v>5.496475102203637</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.39827478570514</v>
+        <v>20.15885723566514</v>
       </c>
       <c r="F22">
-        <v>38.79434844167497</v>
+        <v>42.15164323013647</v>
       </c>
       <c r="G22">
-        <v>30.18252033256613</v>
+        <v>34.79295277338971</v>
       </c>
       <c r="H22">
-        <v>9.878932077802379</v>
+        <v>15.61207821953821</v>
       </c>
       <c r="I22">
-        <v>14.58042140536449</v>
+        <v>22.47660920100924</v>
       </c>
       <c r="J22">
-        <v>4.804236849852339</v>
+        <v>8.367444201948935</v>
       </c>
       <c r="K22">
-        <v>14.5023379849159</v>
+        <v>10.38308795186679</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.50276574460283</v>
+        <v>18.58871550044427</v>
       </c>
       <c r="N22">
-        <v>11.48439067393559</v>
+        <v>19.31031260969631</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.89645711033983</v>
+        <v>10.4683299299777</v>
       </c>
       <c r="C23">
-        <v>9.460363029365237</v>
+        <v>5.421484705148042</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.09027216836392</v>
+        <v>20.10288433617784</v>
       </c>
       <c r="F23">
-        <v>38.25736661623938</v>
+        <v>42.079813780747</v>
       </c>
       <c r="G23">
-        <v>29.87523708460212</v>
+        <v>34.78029852329599</v>
       </c>
       <c r="H23">
-        <v>9.873577863364737</v>
+        <v>15.62652814600699</v>
       </c>
       <c r="I23">
-        <v>14.5824575223618</v>
+        <v>22.50198954069694</v>
       </c>
       <c r="J23">
-        <v>4.827394267726072</v>
+        <v>8.373825936737191</v>
       </c>
       <c r="K23">
-        <v>14.24443299944645</v>
+        <v>10.30776011997516</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.14852275501101</v>
+        <v>18.52973014761177</v>
       </c>
       <c r="N23">
-        <v>11.58576197193639</v>
+        <v>19.33565349740253</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.71297570909161</v>
+        <v>10.04233103371008</v>
       </c>
       <c r="C24">
-        <v>8.745268480253333</v>
+        <v>5.1289453490533</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.89919135611881</v>
+        <v>19.89612776816736</v>
       </c>
       <c r="F24">
-        <v>36.22248083952434</v>
+        <v>41.82462114875607</v>
       </c>
       <c r="G24">
-        <v>28.76708345556309</v>
+        <v>34.75115370198523</v>
       </c>
       <c r="H24">
-        <v>9.87049199456966</v>
+        <v>15.68583288153311</v>
       </c>
       <c r="I24">
-        <v>14.62124228216072</v>
+        <v>22.6057268180925</v>
       </c>
       <c r="J24">
-        <v>4.915943688998911</v>
+        <v>8.398860220362629</v>
       </c>
       <c r="K24">
-        <v>13.22955952730691</v>
+        <v>10.02041750635351</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.78790579888254</v>
+        <v>18.31037318244548</v>
       </c>
       <c r="N24">
-        <v>11.97227840451776</v>
+        <v>19.43472387572434</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.33409891578768</v>
+        <v>9.567925763851438</v>
       </c>
       <c r="C25">
-        <v>7.917101866498568</v>
+        <v>4.796655643322743</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.56485320764475</v>
+        <v>19.68511473337296</v>
       </c>
       <c r="F25">
-        <v>34.03150628580664</v>
+        <v>41.58621925815565</v>
       </c>
       <c r="G25">
-        <v>27.68868364347649</v>
+        <v>34.75977277130725</v>
       </c>
       <c r="H25">
-        <v>9.900651437835521</v>
+        <v>15.75955844963332</v>
       </c>
       <c r="I25">
-        <v>14.72293743802874</v>
+        <v>22.73381932896885</v>
       </c>
       <c r="J25">
-        <v>5.013603852348139</v>
+        <v>8.427723118730652</v>
       </c>
       <c r="K25">
-        <v>12.05220886658252</v>
+        <v>9.70783885008019</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.50128617962395</v>
+        <v>18.08334095570566</v>
       </c>
       <c r="N25">
-        <v>12.39619506369558</v>
+        <v>19.54824577722588</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.208741113779867</v>
+        <v>12.22888293943181</v>
       </c>
       <c r="C2">
-        <v>4.539354369108066</v>
+        <v>7.256930484869385</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>19.54081999720889</v>
+        <v>15.54396231228827</v>
       </c>
       <c r="F2">
-        <v>41.44308217402294</v>
+        <v>32.42987991854129</v>
       </c>
       <c r="G2">
-        <v>34.80040057236256</v>
+        <v>26.99240176875239</v>
       </c>
       <c r="H2">
-        <v>15.82221624725277</v>
+        <v>9.948543516162855</v>
       </c>
       <c r="I2">
-        <v>22.84200665700756</v>
+        <v>14.84307267031172</v>
       </c>
       <c r="J2">
-        <v>8.450590942829677</v>
+        <v>5.087684368255695</v>
       </c>
       <c r="K2">
-        <v>9.477224571857272</v>
+        <v>11.11315283516976</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.9252899035782</v>
+        <v>14.50904372618898</v>
       </c>
       <c r="N2">
-        <v>19.63762078740946</v>
+        <v>12.71575997123303</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.960847332564697</v>
+        <v>11.42286587370344</v>
       </c>
       <c r="C3">
-        <v>4.358208924005166</v>
+        <v>6.777421033311251</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.45028667546163</v>
+        <v>14.83123375760357</v>
       </c>
       <c r="F3">
-        <v>41.36656660365244</v>
+        <v>31.35690257618209</v>
       </c>
       <c r="G3">
-        <v>34.84918848737769</v>
+        <v>26.57951207362673</v>
       </c>
       <c r="H3">
-        <v>15.8698950994418</v>
+        <v>9.995539681890719</v>
       </c>
       <c r="I3">
-        <v>22.92395237437858</v>
+        <v>14.94978679473935</v>
       </c>
       <c r="J3">
-        <v>8.467105432882777</v>
+        <v>5.139395453977938</v>
       </c>
       <c r="K3">
-        <v>9.321605766843465</v>
+        <v>10.43139917694404</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.82427926332689</v>
+        <v>13.81144093922497</v>
       </c>
       <c r="N3">
-        <v>19.70183387900351</v>
+        <v>12.93762208487522</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.80706270628637</v>
+        <v>10.89959276582813</v>
       </c>
       <c r="C4">
-        <v>4.244093993349057</v>
+        <v>6.466975186432977</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19.3983861489304</v>
+        <v>14.38469147188802</v>
       </c>
       <c r="F4">
-        <v>41.32976643811801</v>
+        <v>30.70626533895148</v>
       </c>
       <c r="G4">
-        <v>34.88957252525545</v>
+        <v>26.3542211077548</v>
       </c>
       <c r="H4">
-        <v>15.90173952600342</v>
+        <v>10.03109871382507</v>
       </c>
       <c r="I4">
-        <v>22.97851285037408</v>
+        <v>15.02687155821008</v>
       </c>
       <c r="J4">
-        <v>8.477749708025204</v>
+        <v>5.171934933359468</v>
       </c>
       <c r="K4">
-        <v>9.226718091354323</v>
+        <v>9.99041219749626</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.76540038192556</v>
+        <v>13.37198405891292</v>
       </c>
       <c r="N4">
-        <v>19.74306799528815</v>
+        <v>13.07665484328183</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.744098856646197</v>
+        <v>10.67918653623257</v>
       </c>
       <c r="C5">
-        <v>4.196940808209475</v>
+        <v>6.336412862811843</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19.37817907057669</v>
+        <v>14.20072224522555</v>
       </c>
       <c r="F5">
-        <v>41.31733979157597</v>
+        <v>30.44351194624695</v>
       </c>
       <c r="G5">
-        <v>34.90864241716294</v>
+        <v>26.26935767346579</v>
       </c>
       <c r="H5">
-        <v>15.91536202595342</v>
+        <v>10.0472078695388</v>
       </c>
       <c r="I5">
-        <v>23.00181279474091</v>
+        <v>15.06106150339691</v>
       </c>
       <c r="J5">
-        <v>8.48221453344873</v>
+        <v>5.185399668789477</v>
       </c>
       <c r="K5">
-        <v>9.18826827945715</v>
+        <v>9.805086525152275</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.74221619107715</v>
+        <v>13.1903362205181</v>
       </c>
       <c r="N5">
-        <v>19.76032699821053</v>
+        <v>13.13404553384984</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.733628974189322</v>
+        <v>10.64215443129596</v>
       </c>
       <c r="C6">
-        <v>4.189074174472257</v>
+        <v>6.314487680319663</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19.37488107538586</v>
+        <v>14.17006136373674</v>
       </c>
       <c r="F6">
-        <v>41.31543179717714</v>
+        <v>30.40003603475742</v>
       </c>
       <c r="G6">
-        <v>34.91196648779669</v>
+        <v>26.25568061569248</v>
       </c>
       <c r="H6">
-        <v>15.91766301293878</v>
+        <v>10.04997862883571</v>
       </c>
       <c r="I6">
-        <v>23.00574608058658</v>
+        <v>15.06690277265287</v>
       </c>
       <c r="J6">
-        <v>8.482963607970859</v>
+        <v>5.187648016184241</v>
       </c>
       <c r="K6">
-        <v>9.181898357865498</v>
+        <v>9.77397442592434</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.73841590333355</v>
+        <v>13.16002629620215</v>
       </c>
       <c r="N6">
-        <v>19.76322041009797</v>
+        <v>13.14362030817835</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.806214612290225</v>
+        <v>10.89664935468092</v>
       </c>
       <c r="C7">
-        <v>4.243460595278853</v>
+        <v>6.465230816520966</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19.39810979213609</v>
+        <v>14.38221814579049</v>
       </c>
       <c r="F7">
-        <v>41.32958843235501</v>
+        <v>30.70271164363414</v>
       </c>
       <c r="G7">
-        <v>34.88981914140005</v>
+        <v>26.35304871300971</v>
       </c>
       <c r="H7">
-        <v>15.90192063027465</v>
+        <v>10.03130950071975</v>
       </c>
       <c r="I7">
-        <v>22.97882276688693</v>
+        <v>15.02732157804709</v>
       </c>
       <c r="J7">
-        <v>8.477809406698906</v>
+        <v>5.172115686796892</v>
       </c>
       <c r="K7">
-        <v>9.226198594876386</v>
+        <v>9.987935564199489</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.76508440981039</v>
+        <v>13.36954434648509</v>
       </c>
       <c r="N7">
-        <v>19.74329890904669</v>
+        <v>13.07742582798932</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.123653654221677</v>
+        <v>11.95683633432516</v>
       </c>
       <c r="C8">
-        <v>4.477538756953811</v>
+        <v>7.094906285611477</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>19.50884854178868</v>
+        <v>15.30020131126365</v>
       </c>
       <c r="F8">
-        <v>41.41459313328139</v>
+        <v>32.05841373271504</v>
       </c>
       <c r="G8">
-        <v>34.81505319044051</v>
+        <v>26.84409526558344</v>
       </c>
       <c r="H8">
-        <v>15.83812235718973</v>
+        <v>9.963315448841781</v>
       </c>
       <c r="I8">
-        <v>22.86937952241565</v>
+        <v>14.87738792045123</v>
       </c>
       <c r="J8">
-        <v>8.456180700915521</v>
+        <v>5.105354569666238</v>
       </c>
       <c r="K8">
-        <v>9.423460145687889</v>
+        <v>10.88273286380726</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.88982124944749</v>
+        <v>14.27094731628943</v>
       </c>
       <c r="N8">
-        <v>19.65938724744436</v>
+        <v>12.79169210308311</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.729474677484449</v>
+        <v>13.8124237901354</v>
       </c>
       <c r="C9">
-        <v>4.910681920191025</v>
+        <v>8.20380357795794</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>19.7545233199762</v>
+        <v>17.02063477689868</v>
       </c>
       <c r="F9">
-        <v>41.66153524734903</v>
+        <v>34.76836151613855</v>
       </c>
       <c r="G9">
-        <v>34.75153007960296</v>
+        <v>28.03654494359141</v>
       </c>
       <c r="H9">
-        <v>15.73342193016839</v>
+        <v>9.886298748390622</v>
       </c>
       <c r="I9">
-        <v>22.68851234817755</v>
+        <v>14.68124617206435</v>
       </c>
       <c r="J9">
-        <v>8.41775067951971</v>
+        <v>4.98039016077327</v>
       </c>
       <c r="K9">
-        <v>9.813327908322904</v>
+        <v>12.45995286918246</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.15845914953627</v>
+        <v>15.94197167948291</v>
       </c>
       <c r="N9">
-        <v>19.50911059409066</v>
+        <v>12.25233355922208</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.15925493030568</v>
+        <v>15.0421537309419</v>
       </c>
       <c r="C10">
-        <v>5.209735735662123</v>
+        <v>8.943756869422023</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.95133801525892</v>
+        <v>18.22652586395668</v>
       </c>
       <c r="F10">
-        <v>41.89102188651928</v>
+        <v>36.77479813356773</v>
       </c>
       <c r="G10">
-        <v>34.75590692640617</v>
+        <v>29.05855385564172</v>
       </c>
       <c r="H10">
-        <v>15.66896765642511</v>
+        <v>9.86854333348</v>
       </c>
       <c r="I10">
-        <v>22.57629297279307</v>
+        <v>14.60570161214011</v>
       </c>
       <c r="J10">
-        <v>8.391919781371877</v>
+        <v>4.891756792404112</v>
       </c>
       <c r="K10">
-        <v>10.09869747488639</v>
+        <v>13.51146166545931</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.36920010574296</v>
+        <v>17.1414154096354</v>
       </c>
       <c r="N10">
-        <v>19.4073127150367</v>
+        <v>11.8668884688172</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.35048620873135</v>
+        <v>15.57322470626189</v>
       </c>
       <c r="C11">
-        <v>5.341044334916726</v>
+        <v>9.264645788374537</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.0441683884303</v>
+        <v>18.76113092999846</v>
       </c>
       <c r="F11">
-        <v>42.00562316982126</v>
+        <v>37.68826146981829</v>
       </c>
       <c r="G11">
-        <v>34.76903516532674</v>
+        <v>29.55607245176334</v>
       </c>
       <c r="H11">
-        <v>15.64235919902097</v>
+        <v>9.869922689842388</v>
       </c>
       <c r="I11">
-        <v>22.52974742462678</v>
+        <v>14.58827210488991</v>
       </c>
       <c r="J11">
-        <v>8.380685231932953</v>
+        <v>4.852017786035007</v>
       </c>
       <c r="K11">
-        <v>10.22769453608081</v>
+        <v>13.96688297422898</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.46768501551772</v>
+        <v>17.76723818786511</v>
       </c>
       <c r="N11">
-        <v>19.36285235667756</v>
+        <v>11.69342536465104</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.42221414717156</v>
+        <v>15.77030796256094</v>
       </c>
       <c r="C12">
-        <v>5.390047520725121</v>
+        <v>9.383942169159605</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.07977272714772</v>
+        <v>18.96148782394568</v>
       </c>
       <c r="F12">
-        <v>42.05046390399065</v>
+        <v>38.03409895511483</v>
       </c>
       <c r="G12">
-        <v>34.77560963273713</v>
+        <v>29.74921104830934</v>
       </c>
       <c r="H12">
-        <v>15.63267377037052</v>
+        <v>9.87189333166792</v>
       </c>
       <c r="I12">
-        <v>22.5127710759647</v>
+        <v>14.58428555596252</v>
       </c>
       <c r="J12">
-        <v>8.376504809736126</v>
+        <v>4.837043658581984</v>
       </c>
       <c r="K12">
-        <v>10.27637740063656</v>
+        <v>14.13608070288632</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.50532954641135</v>
+        <v>17.99968200035168</v>
       </c>
       <c r="N12">
-        <v>19.34628067576991</v>
+        <v>11.62796858584287</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.40679789385366</v>
+        <v>15.72804054119482</v>
       </c>
       <c r="C13">
-        <v>5.379526431537364</v>
+        <v>9.358347449154362</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.07208498704891</v>
+        <v>18.91843115524543</v>
       </c>
       <c r="F13">
-        <v>42.04074284566121</v>
+        <v>37.95962218157365</v>
       </c>
       <c r="G13">
-        <v>34.77412239824996</v>
+        <v>29.70740368022631</v>
       </c>
       <c r="H13">
-        <v>15.63474231824687</v>
+        <v>9.871403062937608</v>
       </c>
       <c r="I13">
-        <v>22.51639832337653</v>
+        <v>14.58502498049124</v>
       </c>
       <c r="J13">
-        <v>8.377401859154796</v>
+        <v>4.84026546208309</v>
       </c>
       <c r="K13">
-        <v>10.26590077486559</v>
+        <v>14.09978533730533</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.49720695753038</v>
+        <v>17.94982173382917</v>
       </c>
       <c r="N13">
-        <v>19.34983794018886</v>
+        <v>11.64205631586746</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.35640147148338</v>
+        <v>15.58951914934265</v>
       </c>
       <c r="C14">
-        <v>5.345090506322786</v>
+        <v>9.27450455161172</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.04708866368506</v>
+        <v>18.77765658644478</v>
       </c>
       <c r="F14">
-        <v>42.00928345515705</v>
+        <v>37.71671601220946</v>
       </c>
       <c r="G14">
-        <v>34.76954391928965</v>
+        <v>29.57186683347872</v>
       </c>
       <c r="H14">
-        <v>15.64155454094685</v>
+        <v>9.870055271642288</v>
       </c>
       <c r="I14">
-        <v>22.52833774402733</v>
+        <v>14.58789070368521</v>
       </c>
       <c r="J14">
-        <v>8.380339827858428</v>
+        <v>4.850784424972995</v>
       </c>
       <c r="K14">
-        <v>10.2317032882118</v>
+        <v>13.98086809716671</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.470775181481</v>
+        <v>17.78645202697682</v>
       </c>
       <c r="N14">
-        <v>19.36148370082364</v>
+        <v>11.68803582729071</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.32544068682306</v>
+        <v>15.50414868245301</v>
       </c>
       <c r="C15">
-        <v>5.323902581784243</v>
+        <v>9.222860939551039</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.03183580092718</v>
+        <v>18.69115448853655</v>
       </c>
       <c r="F15">
-        <v>41.99020093425446</v>
+        <v>37.56791519517716</v>
       </c>
       <c r="G15">
-        <v>34.76694825671337</v>
+        <v>29.48946516714577</v>
       </c>
       <c r="H15">
-        <v>15.64577811197589</v>
+        <v>9.869421002091569</v>
       </c>
       <c r="I15">
-        <v>22.53573561426135</v>
+        <v>14.58999181636783</v>
       </c>
       <c r="J15">
-        <v>8.38214902664402</v>
+        <v>4.857236964048912</v>
       </c>
       <c r="K15">
-        <v>10.21073340183563</v>
+        <v>13.90760438104798</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.45462981070119</v>
+        <v>17.68579435950848</v>
       </c>
       <c r="N15">
-        <v>19.36865147322854</v>
+        <v>11.71622831326702</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.14666512779028</v>
+        <v>15.00688121826266</v>
       </c>
       <c r="C16">
-        <v>5.201055630769074</v>
+        <v>8.922473317735152</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.94533577212823</v>
+        <v>18.19129988987354</v>
       </c>
       <c r="F16">
-        <v>41.88373580795891</v>
+        <v>36.71509979429982</v>
       </c>
       <c r="G16">
-        <v>34.75527324595217</v>
+        <v>29.02670041188491</v>
       </c>
       <c r="H16">
-        <v>15.67076120950222</v>
+        <v>9.868650970511169</v>
       </c>
       <c r="I16">
-        <v>22.57942561432285</v>
+        <v>14.60719655314603</v>
       </c>
       <c r="J16">
-        <v>8.392664339948954</v>
+        <v>4.89436473306047</v>
       </c>
       <c r="K16">
-        <v>10.09024660531714</v>
+        <v>13.48124053259419</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.36281435264678</v>
+        <v>17.09987640364086</v>
       </c>
       <c r="N16">
-        <v>19.41025538361035</v>
+        <v>11.87825911137537</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.03584311613893</v>
+        <v>14.69460225115989</v>
       </c>
       <c r="C17">
-        <v>5.124450615942678</v>
+        <v>8.734198717285047</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.89309962775187</v>
+        <v>17.88101498922382</v>
       </c>
       <c r="F17">
-        <v>41.82102072213709</v>
+        <v>36.19197290009152</v>
       </c>
       <c r="G17">
-        <v>34.75096514771555</v>
+        <v>28.75119823489935</v>
       </c>
       <c r="H17">
-        <v>15.68678261218748</v>
+        <v>9.870662579023435</v>
       </c>
       <c r="I17">
-        <v>22.60738279914509</v>
+        <v>14.62221353723571</v>
       </c>
       <c r="J17">
-        <v>8.399247068177106</v>
+        <v>4.917283725863147</v>
       </c>
       <c r="K17">
-        <v>10.01608748668355</v>
+        <v>13.21383379281547</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.30714071350267</v>
+        <v>16.7704483774647</v>
       </c>
       <c r="N17">
-        <v>19.43625046183931</v>
+        <v>11.97811302889038</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.971702458254136</v>
+        <v>14.51231681419671</v>
       </c>
       <c r="C18">
-        <v>5.079946002826508</v>
+        <v>8.624425757202962</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.8633666577354</v>
+        <v>17.70123623048271</v>
       </c>
       <c r="F18">
-        <v>41.78591094441851</v>
+        <v>35.89116035541138</v>
       </c>
       <c r="G18">
-        <v>34.74953553788632</v>
+        <v>28.59580293754234</v>
       </c>
       <c r="H18">
-        <v>15.69625294015901</v>
+        <v>9.872704198079754</v>
       </c>
       <c r="I18">
-        <v>22.62388682455013</v>
+        <v>14.63243392557021</v>
       </c>
       <c r="J18">
-        <v>8.403081873712761</v>
+        <v>4.930521385648611</v>
       </c>
       <c r="K18">
-        <v>9.973358771705465</v>
+        <v>13.05786914158675</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.27536670526214</v>
+        <v>16.59768356428814</v>
       </c>
       <c r="N18">
-        <v>19.45137616045157</v>
+        <v>12.0357256654425</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.949919346292853</v>
+        <v>14.45013780825543</v>
       </c>
       <c r="C19">
-        <v>5.064802657728015</v>
+        <v>8.587002658089736</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.85335383230479</v>
+        <v>17.64014388930801</v>
       </c>
       <c r="F19">
-        <v>41.774189343628</v>
+        <v>35.78932951343442</v>
       </c>
       <c r="G19">
-        <v>34.7492314673108</v>
+        <v>28.54371370689505</v>
       </c>
       <c r="H19">
-        <v>15.69950324933687</v>
+        <v>9.873544739059783</v>
       </c>
       <c r="I19">
-        <v>22.62954753490284</v>
+        <v>14.63616093643518</v>
       </c>
       <c r="J19">
-        <v>8.404388629827892</v>
+        <v>4.935013194741822</v>
       </c>
       <c r="K19">
-        <v>9.958880280979153</v>
+        <v>13.0046903556385</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.26465194816777</v>
+        <v>16.53893411588361</v>
       </c>
       <c r="N19">
-        <v>19.45652738798357</v>
+        <v>12.05526428761077</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.0476821218413</v>
+        <v>14.72812092566255</v>
       </c>
       <c r="C20">
-        <v>5.132651552086577</v>
+        <v>8.754393989824027</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.89862813893939</v>
+        <v>17.91418169468195</v>
       </c>
       <c r="F20">
-        <v>41.82759742421479</v>
+        <v>36.24765416787773</v>
       </c>
       <c r="G20">
-        <v>34.75131524092099</v>
+        <v>28.78020817137946</v>
       </c>
       <c r="H20">
-        <v>15.68505068550998</v>
+        <v>9.870356256389574</v>
       </c>
       <c r="I20">
-        <v>22.60436283491029</v>
+        <v>14.62044984754739</v>
       </c>
       <c r="J20">
-        <v>8.398541298729254</v>
+        <v>4.914838306147278</v>
       </c>
       <c r="K20">
-        <v>10.02398989888472</v>
+        <v>13.24252295002272</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.31304178721414</v>
+        <v>16.80230186948959</v>
       </c>
       <c r="N20">
-        <v>19.4334652403278</v>
+        <v>11.96746513339141</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.37122331473088</v>
+        <v>15.63031494806355</v>
       </c>
       <c r="C21">
-        <v>5.355225018446426</v>
+        <v>9.299191058358026</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.05441862210056</v>
+        <v>18.81906261405161</v>
       </c>
       <c r="F21">
-        <v>42.01848486097617</v>
+        <v>37.78806656702217</v>
       </c>
       <c r="G21">
-        <v>34.77084521781973</v>
+        <v>29.61154829991401</v>
       </c>
       <c r="H21">
-        <v>15.63954301992706</v>
+        <v>9.870411123428367</v>
       </c>
       <c r="I21">
-        <v>22.52481320663256</v>
+        <v>14.58697658497185</v>
       </c>
       <c r="J21">
-        <v>8.379474873530118</v>
+        <v>4.847692815413275</v>
       </c>
       <c r="K21">
-        <v>10.24175278165115</v>
+        <v>14.0158851542606</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.47852953420132</v>
+        <v>17.83456026854573</v>
       </c>
       <c r="N21">
-        <v>19.35805589029716</v>
+        <v>11.67452462307294</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.57864178542149</v>
+        <v>16.19653600657556</v>
       </c>
       <c r="C22">
-        <v>5.496475102203637</v>
+        <v>9.642345916342055</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.15885723566514</v>
+        <v>19.39827478570514</v>
       </c>
       <c r="F22">
-        <v>42.15164323013647</v>
+        <v>38.79434844167496</v>
       </c>
       <c r="G22">
-        <v>34.79295277338971</v>
+        <v>30.1825203325661</v>
       </c>
       <c r="H22">
-        <v>15.61207821953821</v>
+        <v>9.878932077802254</v>
       </c>
       <c r="I22">
-        <v>22.47660920100924</v>
+        <v>14.58042140536438</v>
       </c>
       <c r="J22">
-        <v>8.367444201948935</v>
+        <v>4.804236849852274</v>
       </c>
       <c r="K22">
-        <v>10.38308795186679</v>
+        <v>14.50233798491592</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.58871550044427</v>
+        <v>18.50276574460285</v>
       </c>
       <c r="N22">
-        <v>19.31031260969631</v>
+        <v>11.48439067393549</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.4683299299777</v>
+        <v>15.89645711033988</v>
       </c>
       <c r="C23">
-        <v>5.421484705148042</v>
+        <v>9.460363029365197</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.10288433617784</v>
+        <v>19.09027216836391</v>
       </c>
       <c r="F23">
-        <v>42.079813780747</v>
+        <v>38.25736661623935</v>
       </c>
       <c r="G23">
-        <v>34.78029852329599</v>
+        <v>29.87523708460209</v>
       </c>
       <c r="H23">
-        <v>15.62652814600699</v>
+        <v>9.873577863364741</v>
       </c>
       <c r="I23">
-        <v>22.50198954069694</v>
+        <v>14.58245752236178</v>
       </c>
       <c r="J23">
-        <v>8.373825936737191</v>
+        <v>4.827394267726073</v>
       </c>
       <c r="K23">
-        <v>10.30776011997516</v>
+        <v>14.24443299944649</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.52973014761177</v>
+        <v>18.14852275501102</v>
       </c>
       <c r="N23">
-        <v>19.33565349740253</v>
+        <v>11.58576197193639</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.04233103371008</v>
+        <v>14.71297570909163</v>
       </c>
       <c r="C24">
-        <v>5.1289453490533</v>
+        <v>8.745268480253445</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.89612776816736</v>
+        <v>17.89919135611878</v>
       </c>
       <c r="F24">
-        <v>41.82462114875607</v>
+        <v>36.22248083952434</v>
       </c>
       <c r="G24">
-        <v>34.75115370198523</v>
+        <v>28.76708345556309</v>
       </c>
       <c r="H24">
-        <v>15.68583288153311</v>
+        <v>9.870491994569582</v>
       </c>
       <c r="I24">
-        <v>22.6057268180925</v>
+        <v>14.62124228216067</v>
       </c>
       <c r="J24">
-        <v>8.398860220362629</v>
+        <v>4.915943688998811</v>
       </c>
       <c r="K24">
-        <v>10.02041750635351</v>
+        <v>13.22955952730694</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.31037318244548</v>
+        <v>16.78790579888253</v>
       </c>
       <c r="N24">
-        <v>19.43472387572434</v>
+        <v>11.9722784045177</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.567925763851438</v>
+        <v>13.33409891578767</v>
       </c>
       <c r="C25">
-        <v>4.796655643322743</v>
+        <v>7.917101866498649</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.68511473337296</v>
+        <v>16.56485320764471</v>
       </c>
       <c r="F25">
-        <v>41.58621925815565</v>
+        <v>34.03150628580666</v>
       </c>
       <c r="G25">
-        <v>34.75977277130725</v>
+        <v>27.68868364347662</v>
       </c>
       <c r="H25">
-        <v>15.75955844963332</v>
+        <v>9.900651437835538</v>
       </c>
       <c r="I25">
-        <v>22.73381932896885</v>
+        <v>14.72293743802887</v>
       </c>
       <c r="J25">
-        <v>8.427723118730652</v>
+        <v>5.013603852348206</v>
       </c>
       <c r="K25">
-        <v>9.70783885008019</v>
+        <v>12.05220886658258</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.08334095570566</v>
+        <v>15.50128617962394</v>
       </c>
       <c r="N25">
-        <v>19.54824577722588</v>
+        <v>12.39619506369568</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.22888293943181</v>
+        <v>24.48292803143044</v>
       </c>
       <c r="C2">
-        <v>7.256930484869385</v>
+        <v>19.60005660399139</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.54396231228827</v>
+        <v>24.34765406663934</v>
       </c>
       <c r="F2">
-        <v>32.42987991854129</v>
+        <v>37.85067825123908</v>
       </c>
       <c r="G2">
-        <v>26.99240176875239</v>
+        <v>24.06847814592341</v>
       </c>
       <c r="H2">
-        <v>9.948543516162855</v>
+        <v>2.127347994855127</v>
       </c>
       <c r="I2">
-        <v>14.84307267031172</v>
+        <v>3.118637538554558</v>
       </c>
       <c r="J2">
-        <v>5.087684368255695</v>
+        <v>8.796458917098803</v>
       </c>
       <c r="K2">
-        <v>11.11315283516976</v>
+        <v>11.68412545222463</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.447376227771375</v>
       </c>
       <c r="M2">
-        <v>14.50904372618898</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.71575997123303</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.42286587370344</v>
+        <v>22.86704277619932</v>
       </c>
       <c r="C3">
-        <v>6.777421033311251</v>
+        <v>18.33559806664488</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.83123375760357</v>
+        <v>22.93441194724074</v>
       </c>
       <c r="F3">
-        <v>31.35690257618209</v>
+        <v>36.06896907284558</v>
       </c>
       <c r="G3">
-        <v>26.57951207362673</v>
+        <v>23.32708130010319</v>
       </c>
       <c r="H3">
-        <v>9.995539681890719</v>
+        <v>1.82515050877216</v>
       </c>
       <c r="I3">
-        <v>14.94978679473935</v>
+        <v>2.904729066746748</v>
       </c>
       <c r="J3">
-        <v>5.139395453977938</v>
+        <v>8.815325264029388</v>
       </c>
       <c r="K3">
-        <v>10.43139917694404</v>
+        <v>12.00002973403627</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.366833650622292</v>
       </c>
       <c r="M3">
-        <v>13.81144093922497</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.93762208487522</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.89959276582813</v>
+        <v>21.81544845759485</v>
       </c>
       <c r="C4">
-        <v>6.466975186432977</v>
+        <v>17.51993164004891</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.38469147188802</v>
+        <v>22.02547966068048</v>
       </c>
       <c r="F4">
-        <v>30.70626533895148</v>
+        <v>34.93907941539982</v>
       </c>
       <c r="G4">
-        <v>26.3542211077548</v>
+        <v>22.88605106662699</v>
       </c>
       <c r="H4">
-        <v>10.03109871382507</v>
+        <v>1.633405058297129</v>
       </c>
       <c r="I4">
-        <v>15.02687155821008</v>
+        <v>2.770450136118611</v>
       </c>
       <c r="J4">
-        <v>5.171934933359468</v>
+        <v>8.832726772892913</v>
       </c>
       <c r="K4">
-        <v>9.99041219749626</v>
+        <v>12.20069223829613</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.31551728249787</v>
       </c>
       <c r="M4">
-        <v>13.37198405891292</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.07665484328183</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.67918653623257</v>
+        <v>21.37171851494155</v>
       </c>
       <c r="C5">
-        <v>6.336412862811843</v>
+        <v>17.18932034560057</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.20072224522555</v>
+        <v>21.6554755768218</v>
       </c>
       <c r="F5">
-        <v>30.44351194624695</v>
+        <v>34.45939044872298</v>
       </c>
       <c r="G5">
-        <v>26.26935767346579</v>
+        <v>22.67473065356005</v>
       </c>
       <c r="H5">
-        <v>10.0472078695388</v>
+        <v>1.567780509464212</v>
       </c>
       <c r="I5">
-        <v>15.06106150339691</v>
+        <v>2.715505042116787</v>
       </c>
       <c r="J5">
-        <v>5.185399668789477</v>
+        <v>8.83511237041365</v>
       </c>
       <c r="K5">
-        <v>9.805086525152275</v>
+        <v>12.27476407101501</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.292913030129739</v>
       </c>
       <c r="M5">
-        <v>13.1903362205181</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.13404553384984</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.64215443129596</v>
+        <v>21.29690280539583</v>
       </c>
       <c r="C6">
-        <v>6.314487680319663</v>
+        <v>17.148100144461</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.17006136373674</v>
+        <v>21.60643751820006</v>
       </c>
       <c r="F6">
-        <v>30.40003603475742</v>
+        <v>34.36616214002554</v>
       </c>
       <c r="G6">
-        <v>26.25568061569248</v>
+        <v>22.59677324417082</v>
       </c>
       <c r="H6">
-        <v>10.04997862883571</v>
+        <v>1.581664531131638</v>
       </c>
       <c r="I6">
-        <v>15.06690277265287</v>
+        <v>2.707193758427482</v>
       </c>
       <c r="J6">
-        <v>5.187648016184241</v>
+        <v>8.82816078281127</v>
       </c>
       <c r="K6">
-        <v>9.77397442592434</v>
+        <v>12.27584606301142</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.287642169705553</v>
       </c>
       <c r="M6">
-        <v>13.16002629620215</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.14362030817835</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.89664935468092</v>
+        <v>21.80892256628794</v>
       </c>
       <c r="C7">
-        <v>6.465230816520966</v>
+        <v>17.55358978501176</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.38221814579049</v>
+        <v>22.05530031612965</v>
       </c>
       <c r="F7">
-        <v>30.70271164363414</v>
+        <v>34.89755674110615</v>
       </c>
       <c r="G7">
-        <v>26.35304871300971</v>
+        <v>22.7666283444947</v>
       </c>
       <c r="H7">
-        <v>10.03130950071975</v>
+        <v>1.631832583353716</v>
       </c>
       <c r="I7">
-        <v>15.02732157804709</v>
+        <v>2.771657914994048</v>
       </c>
       <c r="J7">
-        <v>5.172115686796892</v>
+        <v>8.812471262108371</v>
       </c>
       <c r="K7">
-        <v>9.987935564199489</v>
+        <v>12.17060496299623</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.311178298806406</v>
       </c>
       <c r="M7">
-        <v>13.36954434648509</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.07742582798932</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.95683633432516</v>
+        <v>23.93733229727316</v>
       </c>
       <c r="C8">
-        <v>7.094906285611477</v>
+        <v>19.21879817177795</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.30020131126365</v>
+        <v>23.91169941313162</v>
       </c>
       <c r="F8">
-        <v>32.05841373271504</v>
+        <v>37.20037081148652</v>
       </c>
       <c r="G8">
-        <v>26.84409526558344</v>
+        <v>23.66151527367239</v>
       </c>
       <c r="H8">
-        <v>9.963315448841781</v>
+        <v>2.02379391143559</v>
       </c>
       <c r="I8">
-        <v>14.87738792045123</v>
+        <v>3.047380963455644</v>
       </c>
       <c r="J8">
-        <v>5.105354569666238</v>
+        <v>8.774949700726268</v>
       </c>
       <c r="K8">
-        <v>10.88273286380726</v>
+        <v>11.74973871504402</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.414783044304789</v>
       </c>
       <c r="M8">
-        <v>14.27094731628943</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.79169210308311</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.8124237901354</v>
+        <v>27.64377915671919</v>
       </c>
       <c r="C9">
-        <v>8.20380357795794</v>
+        <v>22.1131524573267</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.02063477689868</v>
+        <v>27.16610948467771</v>
       </c>
       <c r="F9">
-        <v>34.76836151613855</v>
+        <v>41.47216842425225</v>
       </c>
       <c r="G9">
-        <v>28.03654494359141</v>
+        <v>25.72373064975933</v>
       </c>
       <c r="H9">
-        <v>9.886298748390622</v>
+        <v>2.745723659526845</v>
       </c>
       <c r="I9">
-        <v>14.68124617206435</v>
+        <v>3.564013345588604</v>
       </c>
       <c r="J9">
-        <v>4.98039016077327</v>
+        <v>8.78792243959108</v>
       </c>
       <c r="K9">
-        <v>12.45995286918246</v>
+        <v>11.03977111618726</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.610421092493074</v>
       </c>
       <c r="M9">
-        <v>15.94197167948291</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.25233355922208</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.0421537309419</v>
+        <v>30.0830251942892</v>
       </c>
       <c r="C10">
-        <v>8.943756869422023</v>
+        <v>24.0319261374485</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.22652586395668</v>
+        <v>28.97169519869791</v>
       </c>
       <c r="F10">
-        <v>36.77479813356773</v>
+        <v>43.94649878655581</v>
       </c>
       <c r="G10">
-        <v>29.05855385564172</v>
+        <v>26.95474035807496</v>
       </c>
       <c r="H10">
-        <v>9.86854333348</v>
+        <v>3.223026076966724</v>
       </c>
       <c r="I10">
-        <v>14.60570161214011</v>
+        <v>3.926941698192862</v>
       </c>
       <c r="J10">
-        <v>4.891756792404112</v>
+        <v>8.768115697016295</v>
       </c>
       <c r="K10">
-        <v>13.51146166545931</v>
+        <v>10.47421665585299</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.693824080412693</v>
       </c>
       <c r="M10">
-        <v>17.1414154096354</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.8668884688172</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.57322470626189</v>
+        <v>31.10692053147453</v>
       </c>
       <c r="C11">
-        <v>9.264645788374537</v>
+        <v>24.60095430312796</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.76113092999846</v>
+        <v>26.42718871650974</v>
       </c>
       <c r="F11">
-        <v>37.68826146981829</v>
+        <v>41.13463684707443</v>
       </c>
       <c r="G11">
-        <v>29.55607245176334</v>
+        <v>24.83585477531345</v>
       </c>
       <c r="H11">
-        <v>9.869922689842388</v>
+        <v>3.801374010287944</v>
       </c>
       <c r="I11">
-        <v>14.58827210488991</v>
+        <v>4.044420166801621</v>
       </c>
       <c r="J11">
-        <v>4.852017786035007</v>
+        <v>8.251170050943973</v>
       </c>
       <c r="K11">
-        <v>13.96688297422898</v>
+        <v>9.577906883939344</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.372977963100413</v>
       </c>
       <c r="M11">
-        <v>17.76723818786511</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.69342536465104</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.77030796256094</v>
+        <v>31.47665133837825</v>
       </c>
       <c r="C12">
-        <v>9.383942169159605</v>
+        <v>24.64348920579088</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.96148782394568</v>
+        <v>23.87359895961986</v>
       </c>
       <c r="F12">
-        <v>38.03409895511483</v>
+        <v>38.25818090999069</v>
       </c>
       <c r="G12">
-        <v>29.74921104830934</v>
+        <v>22.90447011277411</v>
       </c>
       <c r="H12">
-        <v>9.87189333166792</v>
+        <v>4.788283741462314</v>
       </c>
       <c r="I12">
-        <v>14.58428555596252</v>
+        <v>4.068422283366926</v>
       </c>
       <c r="J12">
-        <v>4.837043658581984</v>
+        <v>7.846082104967805</v>
       </c>
       <c r="K12">
-        <v>14.13608070288632</v>
+        <v>9.036547933776182</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.210039448061647</v>
       </c>
       <c r="M12">
-        <v>17.99968200035168</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.62796858584287</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.72804054119482</v>
+        <v>31.37748786610855</v>
       </c>
       <c r="C13">
-        <v>9.358347449154362</v>
+        <v>24.33005868230257</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.91843115524543</v>
+        <v>21.13628646253444</v>
       </c>
       <c r="F13">
-        <v>37.95962218157365</v>
+        <v>35.04414883918083</v>
       </c>
       <c r="G13">
-        <v>29.70740368022631</v>
+        <v>20.78749556926728</v>
       </c>
       <c r="H13">
-        <v>9.871403062937608</v>
+        <v>5.92734494888952</v>
       </c>
       <c r="I13">
-        <v>14.58502498049124</v>
+        <v>4.024320237869885</v>
       </c>
       <c r="J13">
-        <v>4.84026546208309</v>
+        <v>7.472358430225216</v>
       </c>
       <c r="K13">
-        <v>14.09978533730533</v>
+        <v>8.704377242397761</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.161395508396983</v>
       </c>
       <c r="M13">
-        <v>17.94982173382917</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.64205631586746</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.58951914934265</v>
+        <v>31.09487960192262</v>
       </c>
       <c r="C14">
-        <v>9.27450455161172</v>
+        <v>23.95457873093962</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.77765658644478</v>
+        <v>19.12621555328846</v>
       </c>
       <c r="F14">
-        <v>37.71671601220946</v>
+        <v>32.60365933107566</v>
       </c>
       <c r="G14">
-        <v>29.57186683347872</v>
+        <v>19.17302512419915</v>
       </c>
       <c r="H14">
-        <v>9.870055271642288</v>
+        <v>6.78299504620004</v>
       </c>
       <c r="I14">
-        <v>14.58789070368521</v>
+        <v>3.963681047978858</v>
       </c>
       <c r="J14">
-        <v>4.850784424972995</v>
+        <v>7.223973130422312</v>
       </c>
       <c r="K14">
-        <v>13.98086809716671</v>
+        <v>8.580455943571282</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.197259604454136</v>
       </c>
       <c r="M14">
-        <v>17.78645202697682</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.68803582729071</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.50414868245301</v>
+        <v>30.92442997636434</v>
       </c>
       <c r="C15">
-        <v>9.222860939551039</v>
+        <v>23.79719136348756</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.69115448853655</v>
+        <v>18.59878203435582</v>
       </c>
       <c r="F15">
-        <v>37.56791519517716</v>
+        <v>31.92397964374181</v>
       </c>
       <c r="G15">
-        <v>29.48946516714577</v>
+        <v>18.70216174596543</v>
       </c>
       <c r="H15">
-        <v>9.869421002091569</v>
+        <v>6.977219811952666</v>
       </c>
       <c r="I15">
-        <v>14.58999181636783</v>
+        <v>3.934862239988071</v>
       </c>
       <c r="J15">
-        <v>4.857236964048912</v>
+        <v>7.164907085235464</v>
       </c>
       <c r="K15">
-        <v>13.90760438104798</v>
+        <v>8.584232940048299</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.213254922162675</v>
       </c>
       <c r="M15">
-        <v>17.68579435950848</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.71622831326702</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.00688121826266</v>
+        <v>29.94495101569495</v>
       </c>
       <c r="C16">
-        <v>8.922473317735152</v>
+        <v>23.0725735091782</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.19129988987354</v>
+        <v>18.21796791474805</v>
       </c>
       <c r="F16">
-        <v>36.71509979429982</v>
+        <v>31.33310201160948</v>
       </c>
       <c r="G16">
-        <v>29.02670041188491</v>
+        <v>18.39818058136422</v>
       </c>
       <c r="H16">
-        <v>9.868650970511169</v>
+        <v>6.684475565604267</v>
       </c>
       <c r="I16">
-        <v>14.60719655314603</v>
+        <v>3.790823502356955</v>
       </c>
       <c r="J16">
-        <v>4.89436473306047</v>
+        <v>7.239827316847792</v>
       </c>
       <c r="K16">
-        <v>13.48124053259419</v>
+        <v>8.906639844231295</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.18368182246298</v>
       </c>
       <c r="M16">
-        <v>17.09987640364086</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.87825911137537</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.69460225115989</v>
+        <v>29.33391865892339</v>
       </c>
       <c r="C17">
-        <v>8.734198717285047</v>
+        <v>22.71586591834191</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.88101498922382</v>
+        <v>19.03526511732499</v>
       </c>
       <c r="F17">
-        <v>36.19197290009152</v>
+        <v>32.22114082486556</v>
       </c>
       <c r="G17">
-        <v>28.75119823489935</v>
+        <v>19.05916948335291</v>
       </c>
       <c r="H17">
-        <v>9.870662579023435</v>
+        <v>5.950251532025339</v>
       </c>
       <c r="I17">
-        <v>14.62221353723571</v>
+        <v>3.712351929041517</v>
       </c>
       <c r="J17">
-        <v>4.917283725863147</v>
+        <v>7.426416499020445</v>
       </c>
       <c r="K17">
-        <v>13.21383379281547</v>
+        <v>9.204314248476534</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.129750628517167</v>
       </c>
       <c r="M17">
-        <v>16.7704483774647</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.97811302889038</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.51231681419671</v>
+        <v>28.98533644168583</v>
       </c>
       <c r="C18">
-        <v>8.624425757202962</v>
+        <v>22.61955084661367</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.70123623048271</v>
+        <v>21.00014909317013</v>
       </c>
       <c r="F18">
-        <v>35.89116035541138</v>
+        <v>34.51416900288989</v>
       </c>
       <c r="G18">
-        <v>28.59580293754234</v>
+        <v>20.6911054360049</v>
       </c>
       <c r="H18">
-        <v>9.872704198079754</v>
+        <v>4.811277175423292</v>
       </c>
       <c r="I18">
-        <v>14.63243392557021</v>
+        <v>3.680714194387298</v>
       </c>
       <c r="J18">
-        <v>4.930521385648611</v>
+        <v>7.746044246254634</v>
       </c>
       <c r="K18">
-        <v>13.05786914158675</v>
+        <v>9.565396887934085</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.114820464724336</v>
       </c>
       <c r="M18">
-        <v>16.59768356428814</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.0357256654425</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.45013780825543</v>
+        <v>28.87891864329734</v>
       </c>
       <c r="C19">
-        <v>8.587002658089736</v>
+        <v>22.79909270609396</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.64014388930801</v>
+        <v>23.8051036818792</v>
       </c>
       <c r="F19">
-        <v>35.78932951343442</v>
+        <v>37.69410127463878</v>
       </c>
       <c r="G19">
-        <v>28.54371370689505</v>
+        <v>22.77227062954797</v>
       </c>
       <c r="H19">
-        <v>9.873544739059783</v>
+        <v>3.641391857468819</v>
       </c>
       <c r="I19">
-        <v>14.63616093643518</v>
+        <v>3.697268799671686</v>
       </c>
       <c r="J19">
-        <v>4.935013194741822</v>
+        <v>8.122357330783272</v>
       </c>
       <c r="K19">
-        <v>13.0046903556385</v>
+        <v>9.963049675731323</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.228293645142258</v>
       </c>
       <c r="M19">
-        <v>16.53893411588361</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.05526428761077</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.72812092566255</v>
+        <v>29.45964643432784</v>
       </c>
       <c r="C20">
-        <v>8.754393989824027</v>
+        <v>23.63063479153723</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.91418169468195</v>
+        <v>28.57480435991856</v>
       </c>
       <c r="F20">
-        <v>36.24765416787773</v>
+        <v>43.19904908840465</v>
       </c>
       <c r="G20">
-        <v>28.78020817137946</v>
+        <v>26.30272632862189</v>
       </c>
       <c r="H20">
-        <v>9.870356256389574</v>
+        <v>3.095919810686695</v>
       </c>
       <c r="I20">
-        <v>14.62044984754739</v>
+        <v>3.838010086641329</v>
       </c>
       <c r="J20">
-        <v>4.914838306147278</v>
+        <v>8.70647162086415</v>
       </c>
       <c r="K20">
-        <v>13.24252295002272</v>
+        <v>10.51402671100061</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.658850131874271</v>
       </c>
       <c r="M20">
-        <v>16.80230186948959</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.96746513339141</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.63031494806355</v>
+        <v>31.2492159431026</v>
       </c>
       <c r="C21">
-        <v>9.299191058358026</v>
+        <v>25.07658647239747</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.81906261405161</v>
+        <v>30.48975395376748</v>
       </c>
       <c r="F21">
-        <v>37.78806656702217</v>
+        <v>45.752604443918</v>
       </c>
       <c r="G21">
-        <v>29.61154829991401</v>
+        <v>27.80602894270557</v>
       </c>
       <c r="H21">
-        <v>9.870411123428367</v>
+        <v>3.496652783343966</v>
       </c>
       <c r="I21">
-        <v>14.58697658497185</v>
+        <v>4.12098523510317</v>
       </c>
       <c r="J21">
-        <v>4.847692815413275</v>
+        <v>8.805342152397404</v>
       </c>
       <c r="K21">
-        <v>14.0158851542606</v>
+        <v>10.22845436992199</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.800470445910629</v>
       </c>
       <c r="M21">
-        <v>17.83456026854573</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.67452462307294</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.19653600657556</v>
+        <v>32.36833795035423</v>
       </c>
       <c r="C22">
-        <v>9.642345916342055</v>
+        <v>25.93556000382893</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.39827478570514</v>
+        <v>31.46756111027518</v>
       </c>
       <c r="F22">
-        <v>38.79434844167496</v>
+        <v>47.18433336313267</v>
       </c>
       <c r="G22">
-        <v>30.1825203325661</v>
+        <v>28.76429668811857</v>
       </c>
       <c r="H22">
-        <v>9.878932077802254</v>
+        <v>3.740866752344484</v>
       </c>
       <c r="I22">
-        <v>14.58042140536438</v>
+        <v>4.299305451893969</v>
       </c>
       <c r="J22">
-        <v>4.804236849852274</v>
+        <v>8.875103002652901</v>
       </c>
       <c r="K22">
-        <v>14.50233798491592</v>
+        <v>10.06258655352502</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.870784429980286</v>
       </c>
       <c r="M22">
-        <v>18.50276574460285</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.48439067393549</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.89645711033988</v>
+        <v>31.77605148223983</v>
       </c>
       <c r="C23">
-        <v>9.460363029365197</v>
+        <v>25.44740967668322</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.09027216836391</v>
+        <v>30.91884269478619</v>
       </c>
       <c r="F23">
-        <v>38.25736661623935</v>
+        <v>46.45546963227593</v>
       </c>
       <c r="G23">
-        <v>29.87523708460209</v>
+        <v>28.36284416198359</v>
       </c>
       <c r="H23">
-        <v>9.873577863364741</v>
+        <v>3.611327575301638</v>
       </c>
       <c r="I23">
-        <v>14.58245752236178</v>
+        <v>4.202064984529643</v>
       </c>
       <c r="J23">
-        <v>4.827394267726073</v>
+        <v>8.860158285458185</v>
       </c>
       <c r="K23">
-        <v>14.24443299944649</v>
+        <v>10.19001059161949</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.837650790252062</v>
       </c>
       <c r="M23">
-        <v>18.14852275501102</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.58576197193639</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.71297570909163</v>
+        <v>29.43279542651754</v>
       </c>
       <c r="C24">
-        <v>8.745268480253445</v>
+        <v>23.58215537793985</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.89919135611878</v>
+        <v>28.81200416587946</v>
       </c>
       <c r="F24">
-        <v>36.22248083952434</v>
+        <v>43.56812618999729</v>
       </c>
       <c r="G24">
-        <v>28.76708345556309</v>
+        <v>26.69499104794809</v>
       </c>
       <c r="H24">
-        <v>9.870491994569582</v>
+        <v>3.111988876807829</v>
       </c>
       <c r="I24">
-        <v>14.62124228216067</v>
+        <v>3.833926741981758</v>
       </c>
       <c r="J24">
-        <v>4.915943688998811</v>
+        <v>8.785267870720984</v>
       </c>
       <c r="K24">
-        <v>13.22955952730694</v>
+        <v>10.63473780897314</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.70285698404946</v>
       </c>
       <c r="M24">
-        <v>16.78790579888253</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.9722784045177</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.33409891578767</v>
+        <v>26.68983391906469</v>
       </c>
       <c r="C25">
-        <v>7.917101866498649</v>
+        <v>21.42067476683983</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.56485320764471</v>
+        <v>26.37438596086888</v>
       </c>
       <c r="F25">
-        <v>34.03150628580666</v>
+        <v>40.29594145396955</v>
       </c>
       <c r="G25">
-        <v>27.68868364347662</v>
+        <v>24.96419770195311</v>
       </c>
       <c r="H25">
-        <v>9.900651437835538</v>
+        <v>2.554494774127928</v>
       </c>
       <c r="I25">
-        <v>14.72293743802887</v>
+        <v>3.429495078256149</v>
       </c>
       <c r="J25">
-        <v>5.013603852348206</v>
+        <v>8.742182340989279</v>
       </c>
       <c r="K25">
-        <v>12.05220886658258</v>
+        <v>11.1662217069891</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.552135669053429</v>
       </c>
       <c r="M25">
-        <v>15.50128617962394</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.39619506369568</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.48292803143044</v>
+        <v>24.47997908043759</v>
       </c>
       <c r="C2">
-        <v>19.60005660399139</v>
+        <v>19.86310091597439</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.34765406663934</v>
+        <v>24.63847350214795</v>
       </c>
       <c r="F2">
-        <v>37.85067825123908</v>
+        <v>37.52860355923949</v>
       </c>
       <c r="G2">
-        <v>24.06847814592341</v>
+        <v>22.40582806453873</v>
       </c>
       <c r="H2">
-        <v>2.127347994855127</v>
+        <v>2.110658559582886</v>
       </c>
       <c r="I2">
-        <v>3.118637538554558</v>
+        <v>3.113685920487081</v>
       </c>
       <c r="J2">
-        <v>8.796458917098803</v>
+        <v>9.20298427273938</v>
       </c>
       <c r="K2">
-        <v>11.68412545222463</v>
+        <v>11.36423577821316</v>
       </c>
       <c r="L2">
-        <v>5.447376227771375</v>
+        <v>10.50777239440405</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.299234701422315</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.41406764631698</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.86704277619932</v>
+        <v>22.87893169131469</v>
       </c>
       <c r="C3">
-        <v>18.33559806664488</v>
+        <v>18.5202002974382</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.93441194724074</v>
+        <v>23.17852179477543</v>
       </c>
       <c r="F3">
-        <v>36.06896907284558</v>
+        <v>35.81739186729182</v>
       </c>
       <c r="G3">
-        <v>23.32708130010319</v>
+        <v>21.85904825403872</v>
       </c>
       <c r="H3">
-        <v>1.82515050877216</v>
+        <v>1.819668697090708</v>
       </c>
       <c r="I3">
-        <v>2.904729066746748</v>
+        <v>2.929864917188059</v>
       </c>
       <c r="J3">
-        <v>8.815325264029388</v>
+        <v>9.209895049202432</v>
       </c>
       <c r="K3">
-        <v>12.00002973403627</v>
+        <v>11.69981196677369</v>
       </c>
       <c r="L3">
-        <v>5.366833650622292</v>
+        <v>10.76492848430716</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.565042519310015</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.338437942348542</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.81544845759485</v>
+        <v>21.83666574172162</v>
       </c>
       <c r="C4">
-        <v>17.51993164004891</v>
+        <v>17.65244462481062</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.02547966068048</v>
+        <v>22.23955542145519</v>
       </c>
       <c r="F4">
-        <v>34.93907941539982</v>
+        <v>34.73184744396946</v>
       </c>
       <c r="G4">
-        <v>22.88605106662699</v>
+        <v>21.54103391855659</v>
       </c>
       <c r="H4">
-        <v>1.633405058297129</v>
+        <v>1.634910945480721</v>
       </c>
       <c r="I4">
-        <v>2.770450136118611</v>
+        <v>2.814580456416501</v>
       </c>
       <c r="J4">
-        <v>8.832726772892913</v>
+        <v>9.215864688062153</v>
       </c>
       <c r="K4">
-        <v>12.20069223829613</v>
+        <v>11.90985410034092</v>
       </c>
       <c r="L4">
-        <v>5.31551728249787</v>
+        <v>10.92712585870379</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.752194643439431</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.290079654301463</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.37171851494155</v>
+        <v>21.39681704925516</v>
       </c>
       <c r="C5">
-        <v>17.18932034560057</v>
+        <v>17.29854600531174</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.6554755768218</v>
+        <v>21.85589077933462</v>
       </c>
       <c r="F5">
-        <v>34.45939044872298</v>
+        <v>34.27158863479344</v>
       </c>
       <c r="G5">
-        <v>22.67473065356005</v>
+        <v>21.38381584674824</v>
       </c>
       <c r="H5">
-        <v>1.567780509464212</v>
+        <v>1.563275056107999</v>
       </c>
       <c r="I5">
-        <v>2.715505042116787</v>
+        <v>2.767773107580219</v>
       </c>
       <c r="J5">
-        <v>8.83511237041365</v>
+        <v>9.213475197539585</v>
       </c>
       <c r="K5">
-        <v>12.27476407101501</v>
+        <v>11.98863262389405</v>
       </c>
       <c r="L5">
-        <v>5.292913030129739</v>
+        <v>10.98681487902469</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.830180208951882</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.268814077300476</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.29690280539583</v>
+        <v>21.32265575586823</v>
       </c>
       <c r="C6">
-        <v>17.148100144461</v>
+        <v>17.25208558237259</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.60643751820006</v>
+        <v>21.80319452350127</v>
       </c>
       <c r="F6">
-        <v>34.36616214002554</v>
+        <v>34.18298388999694</v>
       </c>
       <c r="G6">
-        <v>22.59677324417082</v>
+        <v>21.31895376439498</v>
       </c>
       <c r="H6">
-        <v>1.581664531131638</v>
+        <v>1.576648883497404</v>
       </c>
       <c r="I6">
-        <v>2.707193758427482</v>
+        <v>2.761178102962624</v>
       </c>
       <c r="J6">
-        <v>8.82816078281127</v>
+        <v>9.206722053812202</v>
       </c>
       <c r="K6">
-        <v>12.27584606301142</v>
+        <v>11.99228260414487</v>
       </c>
       <c r="L6">
-        <v>5.287642169705553</v>
+        <v>10.98766883465349</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.838783379310295</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.263946578055807</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.80892256628794</v>
+        <v>21.82985164959493</v>
       </c>
       <c r="C7">
-        <v>17.55358978501176</v>
+        <v>17.66971246290275</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.05530031612965</v>
+        <v>22.28412346248835</v>
       </c>
       <c r="F7">
-        <v>34.89755674110615</v>
+        <v>34.67522591777775</v>
       </c>
       <c r="G7">
-        <v>22.7666283444947</v>
+        <v>21.49303325959597</v>
       </c>
       <c r="H7">
-        <v>1.631832583353716</v>
+        <v>1.632960994545563</v>
       </c>
       <c r="I7">
-        <v>2.771657914994048</v>
+        <v>2.816100836188955</v>
       </c>
       <c r="J7">
-        <v>8.812471262108371</v>
+        <v>9.150081958089871</v>
       </c>
       <c r="K7">
-        <v>12.17060496299623</v>
+        <v>11.87392584896515</v>
       </c>
       <c r="L7">
-        <v>5.311178298806406</v>
+        <v>10.89321398901774</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.733648215019315</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.2841900587052</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.93733229727316</v>
+        <v>23.93840904719794</v>
       </c>
       <c r="C8">
-        <v>19.21879817177795</v>
+        <v>19.41273620215095</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.91169941313162</v>
+        <v>24.23971282164293</v>
       </c>
       <c r="F8">
-        <v>37.20037081148652</v>
+        <v>36.84733214837642</v>
       </c>
       <c r="G8">
-        <v>23.66151527367239</v>
+        <v>22.27298384707435</v>
       </c>
       <c r="H8">
-        <v>2.02379391143559</v>
+        <v>2.00958734620673</v>
       </c>
       <c r="I8">
-        <v>3.047380963455644</v>
+        <v>3.051646365903697</v>
       </c>
       <c r="J8">
-        <v>8.774949700726268</v>
+        <v>9.024107272884811</v>
       </c>
       <c r="K8">
-        <v>11.74973871504402</v>
+        <v>11.40880305951107</v>
       </c>
       <c r="L8">
-        <v>5.414783044304789</v>
+        <v>10.53623780065911</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.338144238284599</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.377206055589173</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.64377915671919</v>
+        <v>27.60803139223196</v>
       </c>
       <c r="C9">
-        <v>22.1131524573267</v>
+        <v>22.48026404797642</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>27.16610948467771</v>
+        <v>27.61370865992825</v>
       </c>
       <c r="F9">
-        <v>41.47216842425225</v>
+        <v>40.93686199680062</v>
       </c>
       <c r="G9">
-        <v>25.72373064975933</v>
+        <v>23.90504323821005</v>
       </c>
       <c r="H9">
-        <v>2.745723659526845</v>
+        <v>2.703694217883044</v>
       </c>
       <c r="I9">
-        <v>3.564013345588604</v>
+        <v>3.494452999666847</v>
       </c>
       <c r="J9">
-        <v>8.78792243959108</v>
+        <v>8.995537152113386</v>
       </c>
       <c r="K9">
-        <v>11.03977111618726</v>
+        <v>10.61470375536272</v>
       </c>
       <c r="L9">
-        <v>5.610421092493074</v>
+        <v>9.945428217640085</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.827949173363965</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.558263591319895</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.0830251942892</v>
+        <v>30.01858215131808</v>
       </c>
       <c r="C10">
-        <v>24.0319261374485</v>
+        <v>24.43756121972939</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>28.97169519869791</v>
+        <v>29.56653387765881</v>
       </c>
       <c r="F10">
-        <v>43.94649878655581</v>
+        <v>43.21102974340145</v>
       </c>
       <c r="G10">
-        <v>26.95474035807496</v>
+        <v>25.2064710312455</v>
       </c>
       <c r="H10">
-        <v>3.223026076966724</v>
+        <v>3.159216534024568</v>
       </c>
       <c r="I10">
-        <v>3.926941698192862</v>
+        <v>3.803182268632383</v>
       </c>
       <c r="J10">
-        <v>8.768115697016295</v>
+        <v>8.669267551484548</v>
       </c>
       <c r="K10">
-        <v>10.47421665585299</v>
+        <v>9.930873285348826</v>
       </c>
       <c r="L10">
-        <v>5.693824080412693</v>
+        <v>9.458540223037627</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.489984228293139</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.62516383701339</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.10692053147453</v>
+        <v>31.03062132607175</v>
       </c>
       <c r="C11">
-        <v>24.60095430312796</v>
+        <v>24.81433868982596</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.42718871650974</v>
+        <v>27.09974017327414</v>
       </c>
       <c r="F11">
-        <v>41.13463684707443</v>
+        <v>40.28480893775788</v>
       </c>
       <c r="G11">
-        <v>24.83585477531345</v>
+        <v>24.03336865895442</v>
       </c>
       <c r="H11">
-        <v>3.801374010287944</v>
+        <v>3.740354762970183</v>
       </c>
       <c r="I11">
-        <v>4.044420166801621</v>
+        <v>3.899414633977474</v>
       </c>
       <c r="J11">
-        <v>8.251170050943973</v>
+        <v>7.750712998079972</v>
       </c>
       <c r="K11">
-        <v>9.577906883939344</v>
+        <v>9.131594456071882</v>
       </c>
       <c r="L11">
-        <v>5.372977963100413</v>
+        <v>8.983627984292717</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.79459820659592</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.330865439220891</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.47665133837825</v>
+        <v>31.39713100376332</v>
       </c>
       <c r="C12">
-        <v>24.64348920579088</v>
+        <v>24.72392601092572</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.87359895961986</v>
+        <v>24.52676123270457</v>
       </c>
       <c r="F12">
-        <v>38.25818090999069</v>
+        <v>37.40482649875687</v>
       </c>
       <c r="G12">
-        <v>22.90447011277411</v>
+        <v>22.68599785568358</v>
       </c>
       <c r="H12">
-        <v>4.788283741462314</v>
+        <v>4.739878357332352</v>
       </c>
       <c r="I12">
-        <v>4.068422283366926</v>
+        <v>3.916578171607622</v>
       </c>
       <c r="J12">
-        <v>7.846082104967805</v>
+        <v>7.274141151181311</v>
       </c>
       <c r="K12">
-        <v>9.036547933776182</v>
+        <v>8.73980422677997</v>
       </c>
       <c r="L12">
-        <v>5.210039448061647</v>
+        <v>8.782632920699534</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.374684247505368</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.204571724172233</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.37748786610855</v>
+        <v>31.30178843422051</v>
       </c>
       <c r="C13">
-        <v>24.33005868230257</v>
+        <v>24.33115363490271</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.13628646253444</v>
+        <v>21.65579049443715</v>
       </c>
       <c r="F13">
-        <v>35.04414883918083</v>
+        <v>34.31471112583682</v>
       </c>
       <c r="G13">
-        <v>20.78749556926728</v>
+        <v>20.79642866945168</v>
       </c>
       <c r="H13">
-        <v>5.92734494888952</v>
+        <v>5.891767056563697</v>
       </c>
       <c r="I13">
-        <v>4.024320237869885</v>
+        <v>3.878846223507148</v>
       </c>
       <c r="J13">
-        <v>7.472358430225216</v>
+        <v>7.114433844919635</v>
       </c>
       <c r="K13">
-        <v>8.704377242397761</v>
+        <v>8.599166822450695</v>
       </c>
       <c r="L13">
-        <v>5.161395508396983</v>
+        <v>8.721265951517093</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.14744764888283</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.191715626479724</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.09487960192262</v>
+        <v>31.02493404029901</v>
       </c>
       <c r="C14">
-        <v>23.95457873093962</v>
+        <v>23.92141516277299</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.12621555328846</v>
+        <v>19.50159390131968</v>
       </c>
       <c r="F14">
-        <v>32.60365933107566</v>
+        <v>32.01833254718409</v>
       </c>
       <c r="G14">
-        <v>19.17302512419915</v>
+        <v>19.18807076893215</v>
       </c>
       <c r="H14">
-        <v>6.78299504620004</v>
+        <v>6.755168413036158</v>
       </c>
       <c r="I14">
-        <v>3.963681047978858</v>
+        <v>3.828870726922425</v>
       </c>
       <c r="J14">
-        <v>7.223973130422312</v>
+        <v>7.116818013297717</v>
       </c>
       <c r="K14">
-        <v>8.580455943571282</v>
+        <v>8.603965029036157</v>
       </c>
       <c r="L14">
-        <v>5.197259604454136</v>
+        <v>8.726505172957227</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.084747410375392</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.244232403992717</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.92442997636434</v>
+        <v>30.85737566762159</v>
       </c>
       <c r="C15">
-        <v>23.79719136348756</v>
+        <v>23.7641122608545</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.59878203435582</v>
+        <v>18.91876530292302</v>
       </c>
       <c r="F15">
-        <v>31.92397964374181</v>
+        <v>31.39889073699239</v>
       </c>
       <c r="G15">
-        <v>18.70216174596543</v>
+        <v>18.65568887718</v>
       </c>
       <c r="H15">
-        <v>6.977219811952666</v>
+        <v>6.951551190829</v>
       </c>
       <c r="I15">
-        <v>3.934862239988071</v>
+        <v>3.805944030853077</v>
       </c>
       <c r="J15">
-        <v>7.164907085235464</v>
+        <v>7.162582449287834</v>
       </c>
       <c r="K15">
-        <v>8.584232940048299</v>
+        <v>8.640318510383487</v>
       </c>
       <c r="L15">
-        <v>5.213254922162675</v>
+        <v>8.742861940262827</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.101437408457081</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.261644314868643</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.94495101569495</v>
+        <v>29.89179603722968</v>
       </c>
       <c r="C16">
-        <v>23.0725735091782</v>
+        <v>23.11772560624513</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.21796791474805</v>
+        <v>18.38183537489304</v>
       </c>
       <c r="F16">
-        <v>31.33310201160948</v>
+        <v>31.00781447793404</v>
       </c>
       <c r="G16">
-        <v>18.39818058136422</v>
+        <v>17.80712522372049</v>
       </c>
       <c r="H16">
-        <v>6.684475565604267</v>
+        <v>6.663814297600669</v>
       </c>
       <c r="I16">
-        <v>3.790823502356955</v>
+        <v>3.689106386927222</v>
       </c>
       <c r="J16">
-        <v>7.239827316847792</v>
+        <v>7.611718229023902</v>
       </c>
       <c r="K16">
-        <v>8.906639844231295</v>
+        <v>8.98001780041843</v>
       </c>
       <c r="L16">
-        <v>5.18368182246298</v>
+        <v>8.899230914519066</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.401152678459861</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.219679874645579</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.33391865892339</v>
+        <v>29.28798116965275</v>
       </c>
       <c r="C17">
-        <v>22.71586591834191</v>
+        <v>22.82590342519171</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.03526511732499</v>
+        <v>19.17249141582968</v>
       </c>
       <c r="F17">
-        <v>32.22114082486556</v>
+        <v>31.94950214556969</v>
       </c>
       <c r="G17">
-        <v>19.05916948335291</v>
+        <v>18.13262641727575</v>
       </c>
       <c r="H17">
-        <v>5.950251532025339</v>
+        <v>5.930155842991517</v>
       </c>
       <c r="I17">
-        <v>3.712351929041517</v>
+        <v>3.62516270276966</v>
       </c>
       <c r="J17">
-        <v>7.426416499020445</v>
+        <v>7.931864728974526</v>
       </c>
       <c r="K17">
-        <v>9.204314248476534</v>
+        <v>9.243910369231978</v>
       </c>
       <c r="L17">
-        <v>5.129750628517167</v>
+        <v>9.038105410467482</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.64301687285117</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.155826397924936</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.98533644168583</v>
+        <v>28.94214201330752</v>
       </c>
       <c r="C18">
-        <v>22.61955084661367</v>
+        <v>22.81350786073607</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.00014909317013</v>
+        <v>21.18996626309854</v>
       </c>
       <c r="F18">
-        <v>34.51416900288989</v>
+        <v>34.2062198049757</v>
       </c>
       <c r="G18">
-        <v>20.6911054360049</v>
+        <v>19.44214014346758</v>
       </c>
       <c r="H18">
-        <v>4.811277175423292</v>
+        <v>4.787228324596042</v>
       </c>
       <c r="I18">
-        <v>3.680714194387298</v>
+        <v>3.598354863109273</v>
       </c>
       <c r="J18">
-        <v>7.746044246254634</v>
+        <v>8.25628403903452</v>
       </c>
       <c r="K18">
-        <v>9.565396887934085</v>
+        <v>9.520041593463958</v>
       </c>
       <c r="L18">
-        <v>5.114820464724336</v>
+        <v>9.204826783404076</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.904727288621636</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.127980901268387</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.87891864329734</v>
+        <v>28.83473165515251</v>
       </c>
       <c r="C19">
-        <v>22.79909270609396</v>
+        <v>23.08812749470519</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.8051036818792</v>
+        <v>24.08877784144229</v>
       </c>
       <c r="F19">
-        <v>37.69410127463878</v>
+        <v>37.29996373145401</v>
       </c>
       <c r="G19">
-        <v>22.77227062954797</v>
+        <v>21.20249201226131</v>
       </c>
       <c r="H19">
-        <v>3.641391857468819</v>
+        <v>3.607103794623931</v>
       </c>
       <c r="I19">
-        <v>3.697268799671686</v>
+        <v>3.613917204580305</v>
       </c>
       <c r="J19">
-        <v>8.122357330783272</v>
+        <v>8.568532365586981</v>
       </c>
       <c r="K19">
-        <v>9.963049675731323</v>
+        <v>9.793389640100221</v>
       </c>
       <c r="L19">
-        <v>5.228293645142258</v>
+        <v>9.382739612633058</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.172394632796821</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.220801508522827</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.45964643432784</v>
+        <v>29.40392373763798</v>
       </c>
       <c r="C20">
-        <v>23.63063479153723</v>
+        <v>24.05213759975071</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>28.57480435991856</v>
+        <v>29.07047939240454</v>
       </c>
       <c r="F20">
-        <v>43.19904908840465</v>
+        <v>42.58079869913855</v>
       </c>
       <c r="G20">
-        <v>26.30272632862189</v>
+        <v>24.37851991359346</v>
       </c>
       <c r="H20">
-        <v>3.095919810686695</v>
+        <v>3.039276794294788</v>
       </c>
       <c r="I20">
-        <v>3.838010086641329</v>
+        <v>3.733581043788024</v>
       </c>
       <c r="J20">
-        <v>8.70647162086415</v>
+        <v>8.867042880468128</v>
       </c>
       <c r="K20">
-        <v>10.51402671100061</v>
+        <v>10.06881159488448</v>
       </c>
       <c r="L20">
-        <v>5.658850131874271</v>
+        <v>9.558468172628128</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.528580868718801</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.602819323575189</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.2492159431026</v>
+        <v>31.1654165395281</v>
       </c>
       <c r="C21">
-        <v>25.07658647239747</v>
+        <v>25.36925786890577</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.48975395376748</v>
+        <v>31.38436116503726</v>
       </c>
       <c r="F21">
-        <v>45.752604443918</v>
+        <v>44.67756610228498</v>
       </c>
       <c r="G21">
-        <v>27.80602894270557</v>
+        <v>26.85376795727487</v>
       </c>
       <c r="H21">
-        <v>3.496652783343966</v>
+        <v>3.416063197451718</v>
       </c>
       <c r="I21">
-        <v>4.12098523510317</v>
+        <v>3.964068867243892</v>
       </c>
       <c r="J21">
-        <v>8.805342152397404</v>
+        <v>7.884105884377006</v>
       </c>
       <c r="K21">
-        <v>10.22845436992199</v>
+        <v>9.439324997064531</v>
       </c>
       <c r="L21">
-        <v>5.800470445910629</v>
+        <v>9.146650216273326</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.191237690446721</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.689464594697596</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.36833795035423</v>
+        <v>32.26609664769188</v>
       </c>
       <c r="C22">
-        <v>25.93556000382893</v>
+        <v>26.13232287305574</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>31.46756111027518</v>
+        <v>32.62761373912141</v>
       </c>
       <c r="F22">
-        <v>47.18433336313267</v>
+        <v>45.80437464815172</v>
       </c>
       <c r="G22">
-        <v>28.76429668811857</v>
+        <v>28.51213411470486</v>
       </c>
       <c r="H22">
-        <v>3.740866752344484</v>
+        <v>3.64494627093138</v>
       </c>
       <c r="I22">
-        <v>4.299305451893969</v>
+        <v>4.107726539334249</v>
       </c>
       <c r="J22">
-        <v>8.875103002652901</v>
+        <v>7.247531462774213</v>
       </c>
       <c r="K22">
-        <v>10.06258655352502</v>
+        <v>9.023339421673663</v>
       </c>
       <c r="L22">
-        <v>5.870784429980286</v>
+        <v>8.892747627303505</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4.983039071080313</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.723028713677976</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.77605148223983</v>
+        <v>31.68422686332116</v>
       </c>
       <c r="C23">
-        <v>25.44740967668322</v>
+        <v>25.7223385703193</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>30.91884269478619</v>
+        <v>31.90422694542143</v>
       </c>
       <c r="F23">
-        <v>46.45546963227593</v>
+        <v>45.27302153646906</v>
       </c>
       <c r="G23">
-        <v>28.36284416198359</v>
+        <v>27.59016243828992</v>
       </c>
       <c r="H23">
-        <v>3.611327575301638</v>
+        <v>3.524268506233864</v>
       </c>
       <c r="I23">
-        <v>4.202064984529643</v>
+        <v>4.028824990654372</v>
       </c>
       <c r="J23">
-        <v>8.860158285458185</v>
+        <v>7.696512732242529</v>
       </c>
       <c r="K23">
-        <v>10.19001059161949</v>
+        <v>9.299595616937745</v>
       </c>
       <c r="L23">
-        <v>5.837650790252062</v>
+        <v>9.05384229645419</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.154561712053765</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.713532105409887</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.43279542651754</v>
+        <v>29.37705158837025</v>
       </c>
       <c r="C24">
-        <v>23.58215537793985</v>
+        <v>24.01938851910013</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>28.81200416587946</v>
+        <v>29.31976883595816</v>
       </c>
       <c r="F24">
-        <v>43.56812618999729</v>
+        <v>42.93804892840663</v>
       </c>
       <c r="G24">
-        <v>26.69499104794809</v>
+        <v>24.7115632540184</v>
       </c>
       <c r="H24">
-        <v>3.111988876807829</v>
+        <v>3.055152588455617</v>
       </c>
       <c r="I24">
-        <v>3.833926741981758</v>
+        <v>3.727611558219643</v>
       </c>
       <c r="J24">
-        <v>8.785267870720984</v>
+        <v>8.937833398213625</v>
       </c>
       <c r="K24">
-        <v>10.63473780897314</v>
+        <v>10.15885831281332</v>
       </c>
       <c r="L24">
-        <v>5.70285698404946</v>
+        <v>9.615037775586945</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.6152149971124</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.642782876700248</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.68983391906469</v>
+        <v>26.66454680451781</v>
       </c>
       <c r="C25">
-        <v>21.42067476683983</v>
+        <v>21.75383619407165</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>26.37438596086888</v>
+        <v>26.76309032761452</v>
       </c>
       <c r="F25">
-        <v>40.29594145396955</v>
+        <v>39.83833091644037</v>
       </c>
       <c r="G25">
-        <v>24.96419770195311</v>
+        <v>23.19688045111014</v>
       </c>
       <c r="H25">
-        <v>2.554494774127928</v>
+        <v>2.520598609514536</v>
       </c>
       <c r="I25">
-        <v>3.429495078256149</v>
+        <v>3.382127760772761</v>
       </c>
       <c r="J25">
-        <v>8.742182340989279</v>
+        <v>9.038960093371392</v>
       </c>
       <c r="K25">
-        <v>11.1662217069891</v>
+        <v>10.79609311422186</v>
       </c>
       <c r="L25">
-        <v>5.552135669053429</v>
+        <v>10.08068400430736</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.913739523328571</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.507690347261016</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
